--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -125,7 +125,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,6 +151,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -250,12 +254,12 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C67" activeCellId="0" sqref="C67"/>
+      <selection pane="bottomLeft" activeCell="E70" activeCellId="0" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -291,7 +295,7 @@
       <c r="E2" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="F2" s="0" t="str">
+      <c r="F2" s="7" t="str">
         <f aca="false">IF(E2=D2+C2+B2,"","X")</f>
         <v/>
       </c>
@@ -314,7 +318,7 @@
       <c r="E3" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="F3" s="0" t="str">
+      <c r="F3" s="7" t="str">
         <f aca="false">IF(E3=D3+C3+B3,"","X")</f>
         <v/>
       </c>
@@ -337,7 +341,7 @@
       <c r="E4" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="F4" s="0" t="str">
+      <c r="F4" s="7" t="str">
         <f aca="false">IF(E4=D4+C4+B4,"","X")</f>
         <v/>
       </c>
@@ -360,7 +364,7 @@
       <c r="E5" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="F5" s="0" t="str">
+      <c r="F5" s="7" t="str">
         <f aca="false">IF(E5=D5+C5+B5,"","X")</f>
         <v/>
       </c>
@@ -383,7 +387,7 @@
       <c r="E6" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="F6" s="0" t="str">
+      <c r="F6" s="7" t="str">
         <f aca="false">IF(E6=D6+C6+B6,"","X")</f>
         <v/>
       </c>
@@ -406,7 +410,7 @@
       <c r="E7" s="5" t="n">
         <v>79</v>
       </c>
-      <c r="F7" s="0" t="str">
+      <c r="F7" s="7" t="str">
         <f aca="false">IF(E7=D7+C7+B7,"","X")</f>
         <v/>
       </c>
@@ -429,7 +433,7 @@
       <c r="E8" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="F8" s="0" t="str">
+      <c r="F8" s="7" t="str">
         <f aca="false">IF(E8=D8+C8+B8,"","X")</f>
         <v/>
       </c>
@@ -452,7 +456,7 @@
       <c r="E9" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="F9" s="0" t="str">
+      <c r="F9" s="7" t="str">
         <f aca="false">IF(E9=D9+C9+B9,"","X")</f>
         <v/>
       </c>
@@ -475,7 +479,7 @@
       <c r="E10" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="F10" s="0" t="str">
+      <c r="F10" s="7" t="str">
         <f aca="false">IF(E10=D10+C10+B10,"","X")</f>
         <v/>
       </c>
@@ -498,7 +502,7 @@
       <c r="E11" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="F11" s="0" t="str">
+      <c r="F11" s="7" t="str">
         <f aca="false">IF(E11=D11+C11+B11,"","X")</f>
         <v/>
       </c>
@@ -521,7 +525,7 @@
       <c r="E12" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="F12" s="0" t="str">
+      <c r="F12" s="7" t="str">
         <f aca="false">IF(E12=D12+C12+B12,"","X")</f>
         <v/>
       </c>
@@ -544,7 +548,7 @@
       <c r="E13" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="F13" s="0" t="str">
+      <c r="F13" s="7" t="str">
         <f aca="false">IF(E13=D13+C13+B13,"","X")</f>
         <v/>
       </c>
@@ -567,7 +571,7 @@
       <c r="E14" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="F14" s="0" t="str">
+      <c r="F14" s="7" t="str">
         <f aca="false">IF(E14=D14+C14+B14,"","X")</f>
         <v/>
       </c>
@@ -590,7 +594,7 @@
       <c r="E15" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="F15" s="0" t="str">
+      <c r="F15" s="7" t="str">
         <f aca="false">IF(E15=D15+C15+B15,"","X")</f>
         <v/>
       </c>
@@ -613,7 +617,7 @@
       <c r="E16" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="F16" s="0" t="str">
+      <c r="F16" s="7" t="str">
         <f aca="false">IF(E16=D16+C16+B16,"","X")</f>
         <v/>
       </c>
@@ -636,7 +640,7 @@
       <c r="E17" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="F17" s="0" t="str">
+      <c r="F17" s="7" t="str">
         <f aca="false">IF(E17=D17+C17+B17,"","X")</f>
         <v/>
       </c>
@@ -659,7 +663,7 @@
       <c r="E18" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="F18" s="0" t="str">
+      <c r="F18" s="7" t="str">
         <f aca="false">IF(E18=D18+C18+B18,"","X")</f>
         <v/>
       </c>
@@ -682,7 +686,7 @@
       <c r="E19" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="F19" s="0" t="str">
+      <c r="F19" s="7" t="str">
         <f aca="false">IF(E19=D19+C19+B19,"","X")</f>
         <v/>
       </c>
@@ -705,7 +709,7 @@
       <c r="E20" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="F20" s="0" t="str">
+      <c r="F20" s="7" t="str">
         <f aca="false">IF(E20=D20+C20+B20,"","X")</f>
         <v/>
       </c>
@@ -728,7 +732,7 @@
       <c r="E21" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="F21" s="0" t="str">
+      <c r="F21" s="7" t="str">
         <f aca="false">IF(E21=D21+C21+B21,"","X")</f>
         <v/>
       </c>
@@ -741,7 +745,7 @@
       <c r="B22" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="8" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="5" t="n">
@@ -750,7 +754,7 @@
       <c r="E22" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="F22" s="0" t="str">
+      <c r="F22" s="7" t="str">
         <f aca="false">IF(E22=D22+C22+B22,"","X")</f>
         <v/>
       </c>
@@ -773,7 +777,7 @@
       <c r="E23" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="F23" s="0" t="str">
+      <c r="F23" s="7" t="str">
         <f aca="false">IF(E23=D23+C23+B23,"","X")</f>
         <v/>
       </c>
@@ -796,7 +800,7 @@
       <c r="E24" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="F24" s="0" t="str">
+      <c r="F24" s="7" t="str">
         <f aca="false">IF(E24=D24+C24+B24,"","X")</f>
         <v/>
       </c>
@@ -819,7 +823,7 @@
       <c r="E25" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="F25" s="0" t="str">
+      <c r="F25" s="7" t="str">
         <f aca="false">IF(E25=D25+C25+B25,"","X")</f>
         <v/>
       </c>
@@ -842,7 +846,7 @@
       <c r="E26" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="F26" s="0" t="str">
+      <c r="F26" s="7" t="str">
         <f aca="false">IF(E26=D26+C26+B26,"","X")</f>
         <v/>
       </c>
@@ -865,7 +869,7 @@
       <c r="E27" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="F27" s="0" t="str">
+      <c r="F27" s="7" t="str">
         <f aca="false">IF(E27=D27+C27+B27,"","X")</f>
         <v/>
       </c>
@@ -888,7 +892,7 @@
       <c r="E28" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="F28" s="0" t="str">
+      <c r="F28" s="7" t="str">
         <f aca="false">IF(E28=D28+C28+B28,"","X")</f>
         <v/>
       </c>
@@ -901,17 +905,17 @@
       <c r="B29" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="D29" s="9" t="n">
         <f aca="false">E29-C29-B29</f>
         <v>1</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="F29" s="0" t="str">
+      <c r="F29" s="7" t="str">
         <f aca="false">IF(E29=D29+C29+B29,"","X")</f>
         <v/>
       </c>
@@ -934,7 +938,7 @@
       <c r="E30" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="F30" s="0" t="str">
+      <c r="F30" s="7" t="str">
         <f aca="false">IF(E30=D30+C30+B30,"","X")</f>
         <v/>
       </c>
@@ -947,17 +951,17 @@
       <c r="B31" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="9" t="n">
         <f aca="false">E31-C31-B31</f>
         <v>3</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="F31" s="0" t="str">
+      <c r="F31" s="7" t="str">
         <f aca="false">IF(E31=D31+C31+B31,"","X")</f>
         <v/>
       </c>
@@ -980,7 +984,7 @@
       <c r="E32" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="F32" s="0" t="str">
+      <c r="F32" s="7" t="str">
         <f aca="false">IF(E32=D32+C32+B32,"","X")</f>
         <v/>
       </c>
@@ -1003,7 +1007,7 @@
       <c r="E33" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="F33" s="0" t="str">
+      <c r="F33" s="7" t="str">
         <f aca="false">IF(E33=D33+C33+B33,"","X")</f>
         <v/>
       </c>
@@ -1026,7 +1030,7 @@
       <c r="E34" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="F34" s="0" t="str">
+      <c r="F34" s="7" t="str">
         <f aca="false">IF(E34=D34+C34+B34,"","X")</f>
         <v/>
       </c>
@@ -1049,7 +1053,7 @@
       <c r="E35" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="F35" s="0" t="str">
+      <c r="F35" s="7" t="str">
         <f aca="false">IF(E35=D35+C35+B35,"","X")</f>
         <v/>
       </c>
@@ -1062,17 +1066,17 @@
       <c r="B36" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="C36" s="7" t="n">
+      <c r="C36" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D36" s="8" t="n">
+      <c r="D36" s="9" t="n">
         <f aca="false">E36-C36-B36</f>
         <v>1</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="F36" s="0" t="str">
+      <c r="F36" s="7" t="str">
         <f aca="false">IF(E36=D36+C36+B36,"","X")</f>
         <v/>
       </c>
@@ -1095,7 +1099,7 @@
       <c r="E37" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="F37" s="0" t="str">
+      <c r="F37" s="7" t="str">
         <f aca="false">IF(E37=D37+C37+B37,"","X")</f>
         <v/>
       </c>
@@ -1118,7 +1122,7 @@
       <c r="E38" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="F38" s="0" t="str">
+      <c r="F38" s="7" t="str">
         <f aca="false">IF(E38=D38+C38+B38,"","X")</f>
         <v/>
       </c>
@@ -1141,7 +1145,7 @@
       <c r="E39" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="F39" s="0" t="str">
+      <c r="F39" s="7" t="str">
         <f aca="false">IF(E39=D39+C39+B39,"","X")</f>
         <v/>
       </c>
@@ -1164,7 +1168,7 @@
       <c r="E40" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="F40" s="0" t="str">
+      <c r="F40" s="7" t="str">
         <f aca="false">IF(E40=D40+C40+B40,"","X")</f>
         <v/>
       </c>
@@ -1177,17 +1181,17 @@
       <c r="B41" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D41" s="8" t="n">
+      <c r="D41" s="9" t="n">
         <f aca="false">E41-C41-B41</f>
         <v>3</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="F41" s="0" t="str">
+      <c r="F41" s="7" t="str">
         <f aca="false">IF(E41=D41+C41+B41,"","X")</f>
         <v/>
       </c>
@@ -1200,7 +1204,7 @@
       <c r="B42" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="C42" s="7" t="n">
+      <c r="C42" s="8" t="n">
         <v>3</v>
       </c>
       <c r="D42" s="5" t="n">
@@ -1209,7 +1213,7 @@
       <c r="E42" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="F42" s="0" t="str">
+      <c r="F42" s="7" t="str">
         <f aca="false">IF(E42=D42+C42+B42,"","X")</f>
         <v/>
       </c>
@@ -1222,17 +1226,17 @@
       <c r="B43" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="C43" s="7" t="n">
+      <c r="C43" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D43" s="8" t="n">
+      <c r="D43" s="9" t="n">
         <f aca="false">E43-C43-B43</f>
         <v>3</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="F43" s="0" t="str">
+      <c r="F43" s="7" t="str">
         <f aca="false">IF(E43=D43+C43+B43,"","X")</f>
         <v/>
       </c>
@@ -1245,17 +1249,17 @@
       <c r="B44" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="C44" s="7" t="n">
+      <c r="C44" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="8" t="n">
+      <c r="D44" s="9" t="n">
         <f aca="false">E44-C44-B44</f>
         <v>2</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="F44" s="0" t="str">
+      <c r="F44" s="7" t="str">
         <f aca="false">IF(E44=D44+C44+B44,"","X")</f>
         <v/>
       </c>
@@ -1268,17 +1272,17 @@
       <c r="B45" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="C45" s="7" t="n">
+      <c r="C45" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D45" s="8" t="n">
+      <c r="D45" s="9" t="n">
         <f aca="false">E45-C45-B45</f>
         <v>2</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="F45" s="0" t="str">
+      <c r="F45" s="7" t="str">
         <f aca="false">IF(E45=D45+C45+B45,"","X")</f>
         <v/>
       </c>
@@ -1301,7 +1305,7 @@
       <c r="E46" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="F46" s="0" t="str">
+      <c r="F46" s="7" t="str">
         <f aca="false">IF(E46=D46+C46+B46,"","X")</f>
         <v/>
       </c>
@@ -1314,17 +1318,17 @@
       <c r="B47" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="C47" s="7" t="n">
+      <c r="C47" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D47" s="8" t="n">
+      <c r="D47" s="9" t="n">
         <f aca="false">E47-C47-B47</f>
         <v>2</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="F47" s="0" t="str">
+      <c r="F47" s="7" t="str">
         <f aca="false">IF(E47=D47+C47+B47,"","X")</f>
         <v/>
       </c>
@@ -1347,7 +1351,7 @@
       <c r="E48" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="F48" s="0" t="str">
+      <c r="F48" s="7" t="str">
         <f aca="false">IF(E48=D48+C48+B48,"","X")</f>
         <v/>
       </c>
@@ -1370,7 +1374,7 @@
       <c r="E49" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="F49" s="0" t="str">
+      <c r="F49" s="7" t="str">
         <f aca="false">IF(E49=D49+C49+B49,"","X")</f>
         <v/>
       </c>
@@ -1393,7 +1397,7 @@
       <c r="E50" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="F50" s="0" t="str">
+      <c r="F50" s="7" t="str">
         <f aca="false">IF(E50=D50+C50+B50,"","X")</f>
         <v/>
       </c>
@@ -1406,17 +1410,17 @@
       <c r="B51" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="C51" s="7" t="n">
+      <c r="C51" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D51" s="8" t="n">
+      <c r="D51" s="9" t="n">
         <f aca="false">E51-C51-B51</f>
         <v>1</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="F51" s="0" t="str">
+      <c r="F51" s="7" t="str">
         <f aca="false">IF(E51=D51+C51+B51,"","X")</f>
         <v/>
       </c>
@@ -1429,17 +1433,17 @@
       <c r="B52" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="C52" s="7" t="n">
+      <c r="C52" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D52" s="8" t="n">
+      <c r="D52" s="9" t="n">
         <f aca="false">E52-C52-B52</f>
         <v>1</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="F52" s="0" t="str">
+      <c r="F52" s="7" t="str">
         <f aca="false">IF(E52=D52+C52+B52,"","X")</f>
         <v/>
       </c>
@@ -1452,17 +1456,17 @@
       <c r="B53" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="C53" s="7" t="n">
+      <c r="C53" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D53" s="8" t="n">
+      <c r="D53" s="9" t="n">
         <f aca="false">E53-C53-B53</f>
         <v>2</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="F53" s="0" t="str">
+      <c r="F53" s="7" t="str">
         <f aca="false">IF(E53=D53+C53+B53,"","X")</f>
         <v/>
       </c>
@@ -1475,17 +1479,17 @@
       <c r="B54" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="C54" s="7" t="n">
+      <c r="C54" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D54" s="8" t="n">
+      <c r="D54" s="9" t="n">
         <f aca="false">E54-C54-B54</f>
         <v>0</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="F54" s="0" t="str">
+      <c r="F54" s="7" t="str">
         <f aca="false">IF(E54=D54+C54+B54,"","X")</f>
         <v/>
       </c>
@@ -1508,7 +1512,7 @@
       <c r="E55" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="F55" s="0" t="str">
+      <c r="F55" s="7" t="str">
         <f aca="false">IF(E55=D55+C55+B55,"","X")</f>
         <v/>
       </c>
@@ -1521,16 +1525,16 @@
       <c r="B56" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="C56" s="7" t="n">
+      <c r="C56" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D56" s="8" t="n">
+      <c r="D56" s="9" t="n">
         <v>4</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="F56" s="0" t="str">
+      <c r="F56" s="7" t="str">
         <f aca="false">IF(E56=D56+C56+B56,"","X")</f>
         <v/>
       </c>
@@ -1543,17 +1547,17 @@
       <c r="B57" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="C57" s="7" t="n">
+      <c r="C57" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D57" s="8" t="n">
+      <c r="D57" s="9" t="n">
         <f aca="false">E57-C57-B57</f>
         <v>4</v>
       </c>
       <c r="E57" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="F57" s="0" t="str">
+      <c r="F57" s="7" t="str">
         <f aca="false">IF(E57=D57+C57+B57,"","X")</f>
         <v/>
       </c>
@@ -1576,7 +1580,7 @@
       <c r="E58" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="F58" s="0" t="str">
+      <c r="F58" s="7" t="str">
         <f aca="false">IF(E58=D58+C58+B58,"","X")</f>
         <v/>
       </c>
@@ -1599,7 +1603,7 @@
       <c r="E59" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="F59" s="0" t="str">
+      <c r="F59" s="7" t="str">
         <f aca="false">IF(E59=D59+C59+B59,"","X")</f>
         <v/>
       </c>
@@ -1609,19 +1613,19 @@
         <f aca="false">A59+1</f>
         <v>44273</v>
       </c>
-      <c r="B60" s="9" t="n">
+      <c r="B60" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C60" s="9" t="n">
+      <c r="C60" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="D60" s="9" t="n">
+      <c r="D60" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E60" s="9" t="n">
+      <c r="E60" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="F60" s="0" t="str">
+      <c r="F60" s="7" t="str">
         <f aca="false">IF(E60=D60+C60+B60,"","X")</f>
         <v/>
       </c>
@@ -1631,19 +1635,19 @@
         <f aca="false">A60+1</f>
         <v>44274</v>
       </c>
-      <c r="B61" s="9" t="n">
+      <c r="B61" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="C61" s="9" t="n">
+      <c r="C61" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="D61" s="9" t="n">
+      <c r="D61" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E61" s="9" t="n">
+      <c r="E61" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="F61" s="0" t="str">
+      <c r="F61" s="7" t="str">
         <f aca="false">IF(E61=D61+C61+B61,"","X")</f>
         <v/>
       </c>
@@ -1653,19 +1657,19 @@
         <f aca="false">A61+1</f>
         <v>44275</v>
       </c>
-      <c r="B62" s="9" t="n">
+      <c r="B62" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C62" s="9" t="n">
+      <c r="C62" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D62" s="9" t="n">
+      <c r="D62" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E62" s="9" t="n">
+      <c r="E62" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="F62" s="0" t="str">
+      <c r="F62" s="7" t="str">
         <f aca="false">IF(E62=D62+C62+B62,"","X")</f>
         <v/>
       </c>
@@ -1675,19 +1679,19 @@
         <f aca="false">A62+1</f>
         <v>44276</v>
       </c>
-      <c r="B63" s="9" t="n">
+      <c r="B63" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="C63" s="9" t="n">
+      <c r="C63" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="D63" s="9" t="n">
+      <c r="D63" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E63" s="9" t="n">
+      <c r="E63" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="F63" s="0" t="str">
+      <c r="F63" s="7" t="str">
         <f aca="false">IF(E63=D63+C63+B63,"","X")</f>
         <v/>
       </c>
@@ -1697,19 +1701,19 @@
         <f aca="false">A63+1</f>
         <v>44277</v>
       </c>
-      <c r="B64" s="9" t="n">
+      <c r="B64" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="C64" s="9" t="n">
+      <c r="C64" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D64" s="9" t="n">
+      <c r="D64" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="E64" s="9" t="n">
+      <c r="E64" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="F64" s="0" t="str">
+      <c r="F64" s="7" t="str">
         <f aca="false">IF(E64=D64+C64+B64,"","X")</f>
         <v/>
       </c>
@@ -1719,19 +1723,19 @@
         <f aca="false">A64+1</f>
         <v>44278</v>
       </c>
-      <c r="B65" s="9" t="n">
+      <c r="B65" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="C65" s="9" t="n">
+      <c r="C65" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D65" s="9" t="n">
+      <c r="D65" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E65" s="9" t="n">
+      <c r="E65" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="F65" s="0" t="str">
+      <c r="F65" s="7" t="str">
         <f aca="false">IF(E65=D65+C65+B65,"","X")</f>
         <v/>
       </c>
@@ -1741,2824 +1745,2884 @@
         <f aca="false">A65+1</f>
         <v>44279</v>
       </c>
-      <c r="B66" s="9" t="n">
+      <c r="B66" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="C66" s="9" t="n">
+      <c r="C66" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D66" s="9" t="n">
+      <c r="D66" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="E66" s="9" t="n">
+      <c r="E66" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="F66" s="0" t="str">
+      <c r="F66" s="7" t="str">
         <f aca="false">IF(E66=D66+C66+B66,"","X")</f>
         <v/>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10"/>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10"/>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10"/>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="n">
+        <f aca="false">A66+1</f>
+        <v>44280</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="n">
+        <f aca="false">A67+1</f>
+        <v>44281</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="n">
+        <f aca="false">A68+1</f>
+        <v>44282</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="n">
+        <f aca="false">A69+1</f>
+        <v>44283</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10"/>
+      <c r="A71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10"/>
+      <c r="A72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10"/>
+      <c r="A73" s="11"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10"/>
+      <c r="A74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10"/>
+      <c r="A75" s="11"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10"/>
+      <c r="A76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10"/>
+      <c r="A77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10"/>
+      <c r="A78" s="11"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10"/>
+      <c r="A79" s="11"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10"/>
+      <c r="A80" s="11"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10"/>
+      <c r="A81" s="11"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10"/>
+      <c r="A82" s="11"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10"/>
+      <c r="A83" s="11"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10"/>
+      <c r="A84" s="11"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10"/>
+      <c r="A85" s="11"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10"/>
+      <c r="A86" s="11"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10"/>
+      <c r="A87" s="11"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10"/>
+      <c r="A88" s="11"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10"/>
+      <c r="A89" s="11"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10"/>
+      <c r="A90" s="11"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10"/>
+      <c r="A91" s="11"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="10"/>
+      <c r="A92" s="11"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10"/>
+      <c r="A93" s="11"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="10"/>
+      <c r="A94" s="11"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="10"/>
+      <c r="A95" s="11"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10"/>
+      <c r="A96" s="11"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10"/>
+      <c r="A97" s="11"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10"/>
+      <c r="A98" s="11"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10"/>
+      <c r="A99" s="11"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10"/>
+      <c r="A100" s="11"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10"/>
+      <c r="A101" s="11"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="10"/>
+      <c r="A102" s="11"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="10"/>
+      <c r="A103" s="11"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="10"/>
+      <c r="A104" s="11"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="10"/>
+      <c r="A105" s="11"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="10"/>
+      <c r="A106" s="11"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="10"/>
+      <c r="A107" s="11"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="10"/>
+      <c r="A108" s="11"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="10"/>
+      <c r="A109" s="11"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="10"/>
+      <c r="A110" s="11"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10"/>
+      <c r="A111" s="11"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10"/>
+      <c r="A112" s="11"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10"/>
+      <c r="A113" s="11"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="10"/>
+      <c r="A114" s="11"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10"/>
+      <c r="A115" s="11"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="10"/>
+      <c r="A116" s="11"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="10"/>
+      <c r="A117" s="11"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10"/>
+      <c r="A118" s="11"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="10"/>
+      <c r="A119" s="11"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10"/>
+      <c r="A120" s="11"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10"/>
+      <c r="A121" s="11"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10"/>
+      <c r="A122" s="11"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="10"/>
+      <c r="A123" s="11"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="10"/>
+      <c r="A124" s="11"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="10"/>
+      <c r="A125" s="11"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10"/>
+      <c r="A126" s="11"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10"/>
+      <c r="A127" s="11"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="10"/>
+      <c r="A128" s="11"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="10"/>
+      <c r="A129" s="11"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="10"/>
+      <c r="A130" s="11"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="10"/>
+      <c r="A131" s="11"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="10"/>
+      <c r="A132" s="11"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="10"/>
+      <c r="A133" s="11"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="10"/>
+      <c r="A134" s="11"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="10"/>
+      <c r="A135" s="11"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="10"/>
+      <c r="A136" s="11"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="10"/>
+      <c r="A137" s="11"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="10"/>
+      <c r="A138" s="11"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="10"/>
+      <c r="A139" s="11"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="10"/>
+      <c r="A140" s="11"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="10"/>
+      <c r="A141" s="11"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="10"/>
+      <c r="A142" s="11"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="10"/>
+      <c r="A143" s="11"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10"/>
+      <c r="A144" s="11"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10"/>
+      <c r="A145" s="11"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10"/>
+      <c r="A146" s="11"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10"/>
+      <c r="A147" s="11"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="10"/>
+      <c r="A148" s="11"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="10"/>
+      <c r="A149" s="11"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="10"/>
+      <c r="A150" s="11"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="10"/>
+      <c r="A151" s="11"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="10"/>
+      <c r="A152" s="11"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="10"/>
+      <c r="A153" s="11"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="10"/>
+      <c r="A154" s="11"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="10"/>
+      <c r="A155" s="11"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="10"/>
+      <c r="A156" s="11"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="10"/>
+      <c r="A157" s="11"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="10"/>
+      <c r="A158" s="11"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="10"/>
+      <c r="A159" s="11"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="10"/>
+      <c r="A160" s="11"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="10"/>
+      <c r="A161" s="11"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="10"/>
+      <c r="A162" s="11"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="10"/>
+      <c r="A163" s="11"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="10"/>
+      <c r="A164" s="11"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="10"/>
+      <c r="A165" s="11"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="10"/>
+      <c r="A166" s="11"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="10"/>
+      <c r="A167" s="11"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="10"/>
+      <c r="A168" s="11"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="10"/>
+      <c r="A169" s="11"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="10"/>
+      <c r="A170" s="11"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="10"/>
+      <c r="A171" s="11"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="10"/>
+      <c r="A172" s="11"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="10"/>
+      <c r="A173" s="11"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="10"/>
+      <c r="A174" s="11"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="10"/>
+      <c r="A175" s="11"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="10"/>
+      <c r="A176" s="11"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="10"/>
+      <c r="A177" s="11"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="10"/>
+      <c r="A178" s="11"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="10"/>
+      <c r="A179" s="11"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="10"/>
+      <c r="A180" s="11"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="10"/>
+      <c r="A181" s="11"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="10"/>
+      <c r="A182" s="11"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="10"/>
+      <c r="A183" s="11"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="10"/>
+      <c r="A184" s="11"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="10"/>
+      <c r="A185" s="11"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="10"/>
+      <c r="A186" s="11"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="10"/>
+      <c r="A187" s="11"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="10"/>
+      <c r="A188" s="11"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="10"/>
+      <c r="A189" s="11"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="10"/>
+      <c r="A190" s="11"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="10"/>
+      <c r="A191" s="11"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="10"/>
+      <c r="A192" s="11"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="10"/>
+      <c r="A193" s="11"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="10"/>
+      <c r="A194" s="11"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="10"/>
+      <c r="A195" s="11"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="10"/>
+      <c r="A196" s="11"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="10"/>
+      <c r="A197" s="11"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="10"/>
+      <c r="A198" s="11"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="10"/>
+      <c r="A199" s="11"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="10"/>
+      <c r="A200" s="11"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="10"/>
+      <c r="A201" s="11"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="10"/>
+      <c r="A202" s="11"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="10"/>
+      <c r="A203" s="11"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="10"/>
+      <c r="A204" s="11"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="10"/>
+      <c r="A205" s="11"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="10"/>
+      <c r="A206" s="11"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="10"/>
+      <c r="A207" s="11"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="10"/>
+      <c r="A208" s="11"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="10"/>
+      <c r="A209" s="11"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="10"/>
+      <c r="A210" s="11"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="10"/>
+      <c r="A211" s="11"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="10"/>
+      <c r="A212" s="11"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="10"/>
+      <c r="A213" s="11"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="10"/>
+      <c r="A214" s="11"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="10"/>
+      <c r="A215" s="11"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="10"/>
+      <c r="A216" s="11"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="10"/>
+      <c r="A217" s="11"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="10"/>
+      <c r="A218" s="11"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="10"/>
+      <c r="A219" s="11"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="10"/>
+      <c r="A220" s="11"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="10"/>
+      <c r="A221" s="11"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="10"/>
+      <c r="A222" s="11"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="10"/>
+      <c r="A223" s="11"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="10"/>
+      <c r="A224" s="11"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="10"/>
+      <c r="A225" s="11"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="10"/>
+      <c r="A226" s="11"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="10"/>
+      <c r="A227" s="11"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="10"/>
+      <c r="A228" s="11"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="10"/>
+      <c r="A229" s="11"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="10"/>
+      <c r="A230" s="11"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="10"/>
+      <c r="A231" s="11"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="10"/>
+      <c r="A232" s="11"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="10"/>
+      <c r="A233" s="11"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="10"/>
+      <c r="A234" s="11"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="10"/>
+      <c r="A235" s="11"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="10"/>
+      <c r="A236" s="11"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="10"/>
+      <c r="A237" s="11"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="10"/>
+      <c r="A238" s="11"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="10"/>
+      <c r="A239" s="11"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="10"/>
+      <c r="A240" s="11"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="10"/>
+      <c r="A241" s="11"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="10"/>
+      <c r="A242" s="11"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="10"/>
+      <c r="A243" s="11"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="10"/>
+      <c r="A244" s="11"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="10"/>
+      <c r="A245" s="11"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="10"/>
+      <c r="A246" s="11"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="10"/>
+      <c r="A247" s="11"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="10"/>
+      <c r="A248" s="11"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="10"/>
+      <c r="A249" s="11"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="10"/>
+      <c r="A250" s="11"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="10"/>
+      <c r="A251" s="11"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="10"/>
+      <c r="A252" s="11"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="10"/>
+      <c r="A253" s="11"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="10"/>
+      <c r="A254" s="11"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="10"/>
+      <c r="A255" s="11"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="10"/>
+      <c r="A256" s="11"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="10"/>
+      <c r="A257" s="11"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="10"/>
+      <c r="A258" s="11"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="10"/>
+      <c r="A259" s="11"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="10"/>
+      <c r="A260" s="11"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="10"/>
+      <c r="A261" s="11"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="10"/>
+      <c r="A262" s="11"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="10"/>
+      <c r="A263" s="11"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="10"/>
+      <c r="A264" s="11"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="10"/>
+      <c r="A265" s="11"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="10"/>
+      <c r="A266" s="11"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="10"/>
+      <c r="A267" s="11"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="10"/>
+      <c r="A268" s="11"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="10"/>
+      <c r="A269" s="11"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="10"/>
+      <c r="A270" s="11"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="10"/>
+      <c r="A271" s="11"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="10"/>
+      <c r="A272" s="11"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="10"/>
+      <c r="A273" s="11"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="10"/>
+      <c r="A274" s="11"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="10"/>
+      <c r="A275" s="11"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="10"/>
+      <c r="A276" s="11"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="10"/>
+      <c r="A277" s="11"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="10"/>
+      <c r="A278" s="11"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="10"/>
+      <c r="A279" s="11"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="10"/>
+      <c r="A280" s="11"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="10"/>
+      <c r="A281" s="11"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="10"/>
+      <c r="A282" s="11"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="10"/>
+      <c r="A283" s="11"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="10"/>
+      <c r="A284" s="11"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="10"/>
+      <c r="A285" s="11"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="10"/>
+      <c r="A286" s="11"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="10"/>
+      <c r="A287" s="11"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="10"/>
+      <c r="A288" s="11"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="10"/>
+      <c r="A289" s="11"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="10"/>
+      <c r="A290" s="11"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="10"/>
+      <c r="A291" s="11"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="10"/>
+      <c r="A292" s="11"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="10"/>
+      <c r="A293" s="11"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="10"/>
+      <c r="A294" s="11"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="10"/>
+      <c r="A295" s="11"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="10"/>
+      <c r="A296" s="11"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="10"/>
+      <c r="A297" s="11"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="10"/>
+      <c r="A298" s="11"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="10"/>
+      <c r="A299" s="11"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="10"/>
+      <c r="A300" s="11"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="10"/>
+      <c r="A301" s="11"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="10"/>
+      <c r="A302" s="11"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="10"/>
+      <c r="A303" s="11"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="10"/>
+      <c r="A304" s="11"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="10"/>
+      <c r="A305" s="11"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="10"/>
+      <c r="A306" s="11"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="10"/>
+      <c r="A307" s="11"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="10"/>
+      <c r="A308" s="11"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="10"/>
+      <c r="A309" s="11"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="10"/>
+      <c r="A310" s="11"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="10"/>
+      <c r="A311" s="11"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="10"/>
+      <c r="A312" s="11"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="10"/>
+      <c r="A313" s="11"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="10"/>
+      <c r="A314" s="11"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="10"/>
+      <c r="A315" s="11"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="10"/>
+      <c r="A316" s="11"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="10"/>
+      <c r="A317" s="11"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="10"/>
+      <c r="A318" s="11"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="10"/>
+      <c r="A319" s="11"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="10"/>
+      <c r="A320" s="11"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="10"/>
+      <c r="A321" s="11"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="10"/>
+      <c r="A322" s="11"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="10"/>
+      <c r="A323" s="11"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="10"/>
+      <c r="A324" s="11"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="10"/>
+      <c r="A325" s="11"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="10"/>
+      <c r="A326" s="11"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="10"/>
+      <c r="A327" s="11"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="10"/>
+      <c r="A328" s="11"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="10"/>
+      <c r="A329" s="11"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="10"/>
+      <c r="A330" s="11"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="10"/>
+      <c r="A331" s="11"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="10"/>
+      <c r="A332" s="11"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="10"/>
+      <c r="A333" s="11"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="10"/>
+      <c r="A334" s="11"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="10"/>
+      <c r="A335" s="11"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="10"/>
+      <c r="A336" s="11"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="10"/>
+      <c r="A337" s="11"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="10"/>
+      <c r="A338" s="11"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="10"/>
+      <c r="A339" s="11"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="10"/>
+      <c r="A340" s="11"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="10"/>
+      <c r="A341" s="11"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="10"/>
+      <c r="A342" s="11"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="10"/>
+      <c r="A343" s="11"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="10"/>
+      <c r="A344" s="11"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="10"/>
+      <c r="A345" s="11"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="10"/>
+      <c r="A346" s="11"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="10"/>
+      <c r="A347" s="11"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="10"/>
+      <c r="A348" s="11"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="10"/>
+      <c r="A349" s="11"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="10"/>
+      <c r="A350" s="11"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="10"/>
+      <c r="A351" s="11"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="10"/>
+      <c r="A352" s="11"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="10"/>
+      <c r="A353" s="11"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="10"/>
+      <c r="A354" s="11"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="10"/>
+      <c r="A355" s="11"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="10"/>
+      <c r="A356" s="11"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="10"/>
+      <c r="A357" s="11"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="10"/>
+      <c r="A358" s="11"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="10"/>
+      <c r="A359" s="11"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="10"/>
+      <c r="A360" s="11"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="10"/>
+      <c r="A361" s="11"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="10"/>
+      <c r="A362" s="11"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="10"/>
+      <c r="A363" s="11"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="10"/>
+      <c r="A364" s="11"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="10"/>
+      <c r="A365" s="11"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="10"/>
+      <c r="A366" s="11"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="10"/>
+      <c r="A367" s="11"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="10"/>
+      <c r="A368" s="11"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="10"/>
+      <c r="A369" s="11"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="10"/>
+      <c r="A370" s="11"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="10"/>
+      <c r="A371" s="11"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="10"/>
+      <c r="A372" s="11"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="10"/>
+      <c r="A373" s="11"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="10"/>
+      <c r="A374" s="11"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="10"/>
+      <c r="A375" s="11"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="10"/>
+      <c r="A376" s="11"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="10"/>
+      <c r="A377" s="11"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="10"/>
+      <c r="A378" s="11"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="10"/>
+      <c r="A379" s="11"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="10"/>
+      <c r="A380" s="11"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="10"/>
+      <c r="A381" s="11"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="10"/>
+      <c r="A382" s="11"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="10"/>
+      <c r="A383" s="11"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="10"/>
+      <c r="A384" s="11"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="10"/>
+      <c r="A385" s="11"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="10"/>
+      <c r="A386" s="11"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="10"/>
+      <c r="A387" s="11"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="10"/>
+      <c r="A388" s="11"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="10"/>
+      <c r="A389" s="11"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="10"/>
+      <c r="A390" s="11"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="10"/>
+      <c r="A391" s="11"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="10"/>
+      <c r="A392" s="11"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="10"/>
+      <c r="A393" s="11"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="10"/>
+      <c r="A394" s="11"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="10"/>
+      <c r="A395" s="11"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="10"/>
+      <c r="A396" s="11"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="10"/>
+      <c r="A397" s="11"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="10"/>
+      <c r="A398" s="11"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="10"/>
+      <c r="A399" s="11"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="10"/>
+      <c r="A400" s="11"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="10"/>
+      <c r="A401" s="11"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="10"/>
+      <c r="A402" s="11"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="10"/>
+      <c r="A403" s="11"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="10"/>
+      <c r="A404" s="11"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="10"/>
+      <c r="A405" s="11"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="10"/>
+      <c r="A406" s="11"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="10"/>
+      <c r="A407" s="11"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="10"/>
+      <c r="A408" s="11"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="10"/>
+      <c r="A409" s="11"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="10"/>
+      <c r="A410" s="11"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="10"/>
+      <c r="A411" s="11"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="10"/>
+      <c r="A412" s="11"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="10"/>
+      <c r="A413" s="11"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="10"/>
+      <c r="A414" s="11"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="10"/>
+      <c r="A415" s="11"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="10"/>
+      <c r="A416" s="11"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="10"/>
+      <c r="A417" s="11"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="10"/>
+      <c r="A418" s="11"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="10"/>
+      <c r="A419" s="11"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="10"/>
+      <c r="A420" s="11"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="10"/>
+      <c r="A421" s="11"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="10"/>
+      <c r="A422" s="11"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="10"/>
+      <c r="A423" s="11"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="10"/>
+      <c r="A424" s="11"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="10"/>
+      <c r="A425" s="11"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="10"/>
+      <c r="A426" s="11"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="10"/>
+      <c r="A427" s="11"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="10"/>
+      <c r="A428" s="11"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="10"/>
+      <c r="A429" s="11"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="10"/>
+      <c r="A430" s="11"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="10"/>
+      <c r="A431" s="11"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="10"/>
+      <c r="A432" s="11"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="10"/>
+      <c r="A433" s="11"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="10"/>
+      <c r="A434" s="11"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="10"/>
+      <c r="A435" s="11"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="10"/>
+      <c r="A436" s="11"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="10"/>
+      <c r="A437" s="11"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="10"/>
+      <c r="A438" s="11"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="10"/>
+      <c r="A439" s="11"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="10"/>
+      <c r="A440" s="11"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="10"/>
+      <c r="A441" s="11"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="10"/>
+      <c r="A442" s="11"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="10"/>
+      <c r="A443" s="11"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="10"/>
+      <c r="A444" s="11"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="10"/>
+      <c r="A445" s="11"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="10"/>
+      <c r="A446" s="11"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="10"/>
+      <c r="A447" s="11"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="10"/>
+      <c r="A448" s="11"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="10"/>
+      <c r="A449" s="11"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="10"/>
+      <c r="A450" s="11"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="10"/>
+      <c r="A451" s="11"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="10"/>
+      <c r="A452" s="11"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="10"/>
+      <c r="A453" s="11"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="10"/>
+      <c r="A454" s="11"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="10"/>
+      <c r="A455" s="11"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="10"/>
+      <c r="A456" s="11"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="10"/>
+      <c r="A457" s="11"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="10"/>
+      <c r="A458" s="11"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="10"/>
+      <c r="A459" s="11"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="10"/>
+      <c r="A460" s="11"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="10"/>
+      <c r="A461" s="11"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="10"/>
+      <c r="A462" s="11"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="10"/>
+      <c r="A463" s="11"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="10"/>
+      <c r="A464" s="11"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="10"/>
+      <c r="A465" s="11"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="10"/>
+      <c r="A466" s="11"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="10"/>
+      <c r="A467" s="11"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="10"/>
+      <c r="A468" s="11"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="10"/>
+      <c r="A469" s="11"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="10"/>
+      <c r="A470" s="11"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="10"/>
+      <c r="A471" s="11"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="10"/>
+      <c r="A472" s="11"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="10"/>
+      <c r="A473" s="11"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="10"/>
+      <c r="A474" s="11"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="10"/>
+      <c r="A475" s="11"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="10"/>
+      <c r="A476" s="11"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="10"/>
+      <c r="A477" s="11"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="10"/>
+      <c r="A478" s="11"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="10"/>
+      <c r="A479" s="11"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="10"/>
+      <c r="A480" s="11"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="10"/>
+      <c r="A481" s="11"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="10"/>
+      <c r="A482" s="11"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="10"/>
+      <c r="A483" s="11"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="10"/>
+      <c r="A484" s="11"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="10"/>
+      <c r="A485" s="11"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="10"/>
+      <c r="A486" s="11"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="10"/>
+      <c r="A487" s="11"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="10"/>
+      <c r="A488" s="11"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="10"/>
+      <c r="A489" s="11"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="10"/>
+      <c r="A490" s="11"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="10"/>
+      <c r="A491" s="11"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="10"/>
+      <c r="A492" s="11"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="10"/>
+      <c r="A493" s="11"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="10"/>
+      <c r="A494" s="11"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="10"/>
+      <c r="A495" s="11"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="10"/>
+      <c r="A496" s="11"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="10"/>
+      <c r="A497" s="11"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="10"/>
+      <c r="A498" s="11"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="10"/>
+      <c r="A499" s="11"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="10"/>
+      <c r="A500" s="11"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="10"/>
+      <c r="A501" s="11"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="10"/>
+      <c r="A502" s="11"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="10"/>
+      <c r="A503" s="11"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="10"/>
+      <c r="A504" s="11"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="10"/>
+      <c r="A505" s="11"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="10"/>
+      <c r="A506" s="11"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="10"/>
+      <c r="A507" s="11"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="10"/>
+      <c r="A508" s="11"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="10"/>
+      <c r="A509" s="11"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="10"/>
+      <c r="A510" s="11"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="10"/>
+      <c r="A511" s="11"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="10"/>
+      <c r="A512" s="11"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="10"/>
+      <c r="A513" s="11"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="10"/>
+      <c r="A514" s="11"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="10"/>
+      <c r="A515" s="11"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="10"/>
+      <c r="A516" s="11"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="10"/>
+      <c r="A517" s="11"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="10"/>
+      <c r="A518" s="11"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="10"/>
+      <c r="A519" s="11"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="10"/>
+      <c r="A520" s="11"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="10"/>
+      <c r="A521" s="11"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="10"/>
+      <c r="A522" s="11"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="10"/>
+      <c r="A523" s="11"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="10"/>
+      <c r="A524" s="11"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="10"/>
+      <c r="A525" s="11"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="10"/>
+      <c r="A526" s="11"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="10"/>
+      <c r="A527" s="11"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="10"/>
+      <c r="A528" s="11"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="10"/>
+      <c r="A529" s="11"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="10"/>
+      <c r="A530" s="11"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="10"/>
+      <c r="A531" s="11"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="10"/>
+      <c r="A532" s="11"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="10"/>
+      <c r="A533" s="11"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="10"/>
+      <c r="A534" s="11"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="10"/>
+      <c r="A535" s="11"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="10"/>
+      <c r="A536" s="11"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="10"/>
+      <c r="A537" s="11"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="10"/>
+      <c r="A538" s="11"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="10"/>
+      <c r="A539" s="11"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="10"/>
+      <c r="A540" s="11"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="10"/>
+      <c r="A541" s="11"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="10"/>
+      <c r="A542" s="11"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="10"/>
+      <c r="A543" s="11"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="10"/>
+      <c r="A544" s="11"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="10"/>
+      <c r="A545" s="11"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="10"/>
+      <c r="A546" s="11"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="10"/>
+      <c r="A547" s="11"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="10"/>
+      <c r="A548" s="11"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="10"/>
+      <c r="A549" s="11"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="10"/>
+      <c r="A550" s="11"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="10"/>
+      <c r="A551" s="11"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="10"/>
+      <c r="A552" s="11"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="10"/>
+      <c r="A553" s="11"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="10"/>
+      <c r="A554" s="11"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="10"/>
+      <c r="A555" s="11"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="10"/>
+      <c r="A556" s="11"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="10"/>
+      <c r="A557" s="11"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="10"/>
+      <c r="A558" s="11"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="10"/>
+      <c r="A559" s="11"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="10"/>
+      <c r="A560" s="11"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="10"/>
+      <c r="A561" s="11"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="10"/>
+      <c r="A562" s="11"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="10"/>
+      <c r="A563" s="11"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="10"/>
+      <c r="A564" s="11"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="10"/>
+      <c r="A565" s="11"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="10"/>
+      <c r="A566" s="11"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="10"/>
+      <c r="A567" s="11"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="10"/>
+      <c r="A568" s="11"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="10"/>
+      <c r="A569" s="11"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="10"/>
+      <c r="A570" s="11"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="10"/>
+      <c r="A571" s="11"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="10"/>
+      <c r="A572" s="11"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="10"/>
+      <c r="A573" s="11"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="10"/>
+      <c r="A574" s="11"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="10"/>
+      <c r="A575" s="11"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="10"/>
+      <c r="A576" s="11"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="10"/>
+      <c r="A577" s="11"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="10"/>
+      <c r="A578" s="11"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="10"/>
+      <c r="A579" s="11"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="10"/>
+      <c r="A580" s="11"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="10"/>
+      <c r="A581" s="11"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="10"/>
+      <c r="A582" s="11"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="10"/>
+      <c r="A583" s="11"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="10"/>
+      <c r="A584" s="11"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="10"/>
+      <c r="A585" s="11"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="10"/>
+      <c r="A586" s="11"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="10"/>
+      <c r="A587" s="11"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="10"/>
+      <c r="A588" s="11"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="10"/>
+      <c r="A589" s="11"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="10"/>
+      <c r="A590" s="11"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="10"/>
+      <c r="A591" s="11"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="10"/>
+      <c r="A592" s="11"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="10"/>
+      <c r="A593" s="11"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="10"/>
+      <c r="A594" s="11"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="10"/>
+      <c r="A595" s="11"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="10"/>
+      <c r="A596" s="11"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="10"/>
+      <c r="A597" s="11"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="10"/>
+      <c r="A598" s="11"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="10"/>
+      <c r="A599" s="11"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="10"/>
+      <c r="A600" s="11"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="10"/>
+      <c r="A601" s="11"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="10"/>
+      <c r="A602" s="11"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="10"/>
+      <c r="A603" s="11"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="10"/>
+      <c r="A604" s="11"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="10"/>
+      <c r="A605" s="11"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="10"/>
+      <c r="A606" s="11"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="10"/>
+      <c r="A607" s="11"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="10"/>
+      <c r="A608" s="11"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="10"/>
+      <c r="A609" s="11"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="10"/>
+      <c r="A610" s="11"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="10"/>
+      <c r="A611" s="11"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="10"/>
+      <c r="A612" s="11"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="10"/>
+      <c r="A613" s="11"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="10"/>
+      <c r="A614" s="11"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="10"/>
+      <c r="A615" s="11"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="10"/>
+      <c r="A616" s="11"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="10"/>
+      <c r="A617" s="11"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="10"/>
+      <c r="A618" s="11"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="10"/>
+      <c r="A619" s="11"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="10"/>
+      <c r="A620" s="11"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="10"/>
+      <c r="A621" s="11"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="10"/>
+      <c r="A622" s="11"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="10"/>
+      <c r="A623" s="11"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="10"/>
+      <c r="A624" s="11"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="10"/>
+      <c r="A625" s="11"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="10"/>
+      <c r="A626" s="11"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="10"/>
+      <c r="A627" s="11"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="10"/>
+      <c r="A628" s="11"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="10"/>
+      <c r="A629" s="11"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="10"/>
+      <c r="A630" s="11"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="10"/>
+      <c r="A631" s="11"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="10"/>
+      <c r="A632" s="11"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="10"/>
+      <c r="A633" s="11"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="10"/>
+      <c r="A634" s="11"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="10"/>
+      <c r="A635" s="11"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="10"/>
+      <c r="A636" s="11"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="10"/>
+      <c r="A637" s="11"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="10"/>
+      <c r="A638" s="11"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="10"/>
+      <c r="A639" s="11"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="10"/>
+      <c r="A640" s="11"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="10"/>
+      <c r="A641" s="11"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="10"/>
+      <c r="A642" s="11"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="10"/>
+      <c r="A643" s="11"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="10"/>
+      <c r="A644" s="11"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="10"/>
+      <c r="A645" s="11"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="10"/>
+      <c r="A646" s="11"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="10"/>
+      <c r="A647" s="11"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="10"/>
+      <c r="A648" s="11"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="10"/>
+      <c r="A649" s="11"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="10"/>
+      <c r="A650" s="11"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="10"/>
+      <c r="A651" s="11"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="10"/>
+      <c r="A652" s="11"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="10"/>
+      <c r="A653" s="11"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="10"/>
+      <c r="A654" s="11"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="10"/>
+      <c r="A655" s="11"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="10"/>
+      <c r="A656" s="11"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="10"/>
+      <c r="A657" s="11"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="10"/>
+      <c r="A658" s="11"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="10"/>
+      <c r="A659" s="11"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="10"/>
+      <c r="A660" s="11"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="10"/>
+      <c r="A661" s="11"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="10"/>
+      <c r="A662" s="11"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="10"/>
+      <c r="A663" s="11"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="10"/>
+      <c r="A664" s="11"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="10"/>
+      <c r="A665" s="11"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="10"/>
+      <c r="A666" s="11"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="10"/>
+      <c r="A667" s="11"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="10"/>
+      <c r="A668" s="11"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="10"/>
+      <c r="A669" s="11"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="10"/>
+      <c r="A670" s="11"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="10"/>
+      <c r="A671" s="11"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="10"/>
+      <c r="A672" s="11"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="10"/>
+      <c r="A673" s="11"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="10"/>
+      <c r="A674" s="11"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="10"/>
+      <c r="A675" s="11"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="10"/>
+      <c r="A676" s="11"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="10"/>
+      <c r="A677" s="11"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="10"/>
+      <c r="A678" s="11"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="10"/>
+      <c r="A679" s="11"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="10"/>
+      <c r="A680" s="11"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="10"/>
+      <c r="A681" s="11"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="10"/>
+      <c r="A682" s="11"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="10"/>
+      <c r="A683" s="11"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="10"/>
+      <c r="A684" s="11"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="10"/>
+      <c r="A685" s="11"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="10"/>
+      <c r="A686" s="11"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="10"/>
+      <c r="A687" s="11"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="10"/>
+      <c r="A688" s="11"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="10"/>
+      <c r="A689" s="11"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="10"/>
+      <c r="A690" s="11"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="10"/>
+      <c r="A691" s="11"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="10"/>
+      <c r="A692" s="11"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="10"/>
+      <c r="A693" s="11"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="10"/>
+      <c r="A694" s="11"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="10"/>
+      <c r="A695" s="11"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="10"/>
+      <c r="A696" s="11"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="10"/>
+      <c r="A697" s="11"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="10"/>
+      <c r="A698" s="11"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="10"/>
+      <c r="A699" s="11"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="10"/>
+      <c r="A700" s="11"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="10"/>
+      <c r="A701" s="11"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="10"/>
+      <c r="A702" s="11"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="10"/>
+      <c r="A703" s="11"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="10"/>
+      <c r="A704" s="11"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="10"/>
+      <c r="A705" s="11"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="10"/>
+      <c r="A706" s="11"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="10"/>
+      <c r="A707" s="11"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="10"/>
+      <c r="A708" s="11"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="10"/>
+      <c r="A709" s="11"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="10"/>
+      <c r="A710" s="11"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="10"/>
+      <c r="A711" s="11"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="10"/>
+      <c r="A712" s="11"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="10"/>
+      <c r="A713" s="11"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="10"/>
+      <c r="A714" s="11"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="10"/>
+      <c r="A715" s="11"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="10"/>
+      <c r="A716" s="11"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="10"/>
+      <c r="A717" s="11"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="10"/>
+      <c r="A718" s="11"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="10"/>
+      <c r="A719" s="11"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="10"/>
+      <c r="A720" s="11"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="10"/>
+      <c r="A721" s="11"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="10"/>
+      <c r="A722" s="11"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="10"/>
+      <c r="A723" s="11"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="10"/>
+      <c r="A724" s="11"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="10"/>
+      <c r="A725" s="11"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="10"/>
+      <c r="A726" s="11"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="10"/>
+      <c r="A727" s="11"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="10"/>
+      <c r="A728" s="11"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="10"/>
+      <c r="A729" s="11"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="10"/>
+      <c r="A730" s="11"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="10"/>
+      <c r="A731" s="11"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="10"/>
+      <c r="A732" s="11"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="10"/>
+      <c r="A733" s="11"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="10"/>
+      <c r="A734" s="11"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="10"/>
+      <c r="A735" s="11"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="10"/>
+      <c r="A736" s="11"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="10"/>
+      <c r="A737" s="11"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="10"/>
+      <c r="A738" s="11"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="10"/>
+      <c r="A739" s="11"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="10"/>
+      <c r="A740" s="11"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="10"/>
+      <c r="A741" s="11"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="10"/>
+      <c r="A742" s="11"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="10"/>
+      <c r="A743" s="11"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="10"/>
+      <c r="A744" s="11"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="10"/>
+      <c r="A745" s="11"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="10"/>
+      <c r="A746" s="11"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="10"/>
+      <c r="A747" s="11"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="10"/>
+      <c r="A748" s="11"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="10"/>
+      <c r="A749" s="11"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="10"/>
+      <c r="A750" s="11"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="10"/>
+      <c r="A751" s="11"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="10"/>
+      <c r="A752" s="11"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="10"/>
+      <c r="A753" s="11"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="10"/>
+      <c r="A754" s="11"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="10"/>
+      <c r="A755" s="11"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="10"/>
+      <c r="A756" s="11"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="10"/>
+      <c r="A757" s="11"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="10"/>
+      <c r="A758" s="11"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="10"/>
+      <c r="A759" s="11"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="10"/>
+      <c r="A760" s="11"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="10"/>
+      <c r="A761" s="11"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="10"/>
+      <c r="A762" s="11"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="10"/>
+      <c r="A763" s="11"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="10"/>
+      <c r="A764" s="11"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="10"/>
+      <c r="A765" s="11"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="10"/>
+      <c r="A766" s="11"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="10"/>
+      <c r="A767" s="11"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="10"/>
+      <c r="A768" s="11"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="10"/>
+      <c r="A769" s="11"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="10"/>
+      <c r="A770" s="11"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="10"/>
+      <c r="A771" s="11"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="10"/>
+      <c r="A772" s="11"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="10"/>
+      <c r="A773" s="11"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="10"/>
+      <c r="A774" s="11"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="10"/>
+      <c r="A775" s="11"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="10"/>
+      <c r="A776" s="11"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="10"/>
+      <c r="A777" s="11"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="10"/>
+      <c r="A778" s="11"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="10"/>
+      <c r="A779" s="11"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="10"/>
+      <c r="A780" s="11"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="10"/>
+      <c r="A781" s="11"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="10"/>
+      <c r="A782" s="11"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="10"/>
+      <c r="A783" s="11"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="10"/>
+      <c r="A784" s="11"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="10"/>
+      <c r="A785" s="11"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="10"/>
+      <c r="A786" s="11"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="10"/>
+      <c r="A787" s="11"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="10"/>
+      <c r="A788" s="11"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="10"/>
+      <c r="A789" s="11"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="10"/>
+      <c r="A790" s="11"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="10"/>
+      <c r="A791" s="11"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="10"/>
+      <c r="A792" s="11"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="10"/>
+      <c r="A793" s="11"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="10"/>
+      <c r="A794" s="11"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="10"/>
+      <c r="A795" s="11"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="10"/>
+      <c r="A796" s="11"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="10"/>
+      <c r="A797" s="11"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="10"/>
+      <c r="A798" s="11"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="10"/>
+      <c r="A799" s="11"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="10"/>
+      <c r="A800" s="11"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="10"/>
+      <c r="A801" s="11"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="10"/>
+      <c r="A802" s="11"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="10"/>
+      <c r="A803" s="11"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="10"/>
+      <c r="A804" s="11"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="10"/>
+      <c r="A805" s="11"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="10"/>
+      <c r="A806" s="11"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="10"/>
+      <c r="A807" s="11"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="10"/>
+      <c r="A808" s="11"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="10"/>
+      <c r="A809" s="11"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="10"/>
+      <c r="A810" s="11"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="10"/>
+      <c r="A811" s="11"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="10"/>
+      <c r="A812" s="11"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="10"/>
+      <c r="A813" s="11"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="10"/>
+      <c r="A814" s="11"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="10"/>
+      <c r="A815" s="11"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="10"/>
+      <c r="A816" s="11"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="10"/>
+      <c r="A817" s="11"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="10"/>
+      <c r="A818" s="11"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="10"/>
+      <c r="A819" s="11"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="10"/>
+      <c r="A820" s="11"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="10"/>
+      <c r="A821" s="11"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="10"/>
+      <c r="A822" s="11"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="10"/>
+      <c r="A823" s="11"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="10"/>
+      <c r="A824" s="11"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="10"/>
+      <c r="A825" s="11"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="10"/>
+      <c r="A826" s="11"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="10"/>
+      <c r="A827" s="11"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="10"/>
+      <c r="A828" s="11"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="10"/>
+      <c r="A829" s="11"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="10"/>
+      <c r="A830" s="11"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="10"/>
+      <c r="A831" s="11"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="10"/>
+      <c r="A832" s="11"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="10"/>
+      <c r="A833" s="11"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="10"/>
+      <c r="A834" s="11"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="10"/>
+      <c r="A835" s="11"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="10"/>
+      <c r="A836" s="11"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="10"/>
+      <c r="A837" s="11"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="10"/>
+      <c r="A838" s="11"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="10"/>
+      <c r="A839" s="11"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="10"/>
+      <c r="A840" s="11"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="10"/>
+      <c r="A841" s="11"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="10"/>
+      <c r="A842" s="11"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="10"/>
+      <c r="A843" s="11"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="10"/>
+      <c r="A844" s="11"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="10"/>
+      <c r="A845" s="11"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="10"/>
+      <c r="A846" s="11"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="10"/>
+      <c r="A847" s="11"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="10"/>
+      <c r="A848" s="11"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="10"/>
+      <c r="A849" s="11"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="10"/>
+      <c r="A850" s="11"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="10"/>
+      <c r="A851" s="11"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="10"/>
+      <c r="A852" s="11"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="10"/>
+      <c r="A853" s="11"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="10"/>
+      <c r="A854" s="11"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="10"/>
+      <c r="A855" s="11"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="10"/>
+      <c r="A856" s="11"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="10"/>
+      <c r="A857" s="11"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="10"/>
+      <c r="A858" s="11"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="10"/>
+      <c r="A859" s="11"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="10"/>
+      <c r="A860" s="11"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="10"/>
+      <c r="A861" s="11"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="10"/>
+      <c r="A862" s="11"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="10"/>
+      <c r="A863" s="11"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="10"/>
+      <c r="A864" s="11"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="10"/>
+      <c r="A865" s="11"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="10"/>
+      <c r="A866" s="11"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="10"/>
+      <c r="A867" s="11"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="10"/>
+      <c r="A868" s="11"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="10"/>
+      <c r="A869" s="11"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="10"/>
+      <c r="A870" s="11"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="10"/>
+      <c r="A871" s="11"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="10"/>
+      <c r="A872" s="11"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="10"/>
+      <c r="A873" s="11"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="10"/>
+      <c r="A874" s="11"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="10"/>
+      <c r="A875" s="11"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="10"/>
+      <c r="A876" s="11"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="10"/>
+      <c r="A877" s="11"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="10"/>
+      <c r="A878" s="11"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="10"/>
+      <c r="A879" s="11"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="10"/>
+      <c r="A880" s="11"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="10"/>
+      <c r="A881" s="11"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="10"/>
+      <c r="A882" s="11"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="10"/>
+      <c r="A883" s="11"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="10"/>
+      <c r="A884" s="11"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="10"/>
+      <c r="A885" s="11"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="10"/>
+      <c r="A886" s="11"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="10"/>
+      <c r="A887" s="11"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="10"/>
+      <c r="A888" s="11"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="10"/>
+      <c r="A889" s="11"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="10"/>
+      <c r="A890" s="11"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="10"/>
+      <c r="A891" s="11"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="10"/>
+      <c r="A892" s="11"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="10"/>
+      <c r="A893" s="11"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="10"/>
+      <c r="A894" s="11"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="10"/>
+      <c r="A895" s="11"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="10"/>
+      <c r="A896" s="11"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="10"/>
+      <c r="A897" s="11"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="10"/>
+      <c r="A898" s="11"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="10"/>
+      <c r="A899" s="11"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="10"/>
+      <c r="A900" s="11"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="10"/>
+      <c r="A901" s="11"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="10"/>
+      <c r="A902" s="11"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="10"/>
+      <c r="A903" s="11"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="10"/>
+      <c r="A904" s="11"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="10"/>
+      <c r="A905" s="11"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="10"/>
+      <c r="A906" s="11"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="10"/>
+      <c r="A907" s="11"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="10"/>
+      <c r="A908" s="11"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="10"/>
+      <c r="A909" s="11"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="10"/>
+      <c r="A910" s="11"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="10"/>
+      <c r="A911" s="11"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="10"/>
+      <c r="A912" s="11"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="10"/>
+      <c r="A913" s="11"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="10"/>
+      <c r="A914" s="11"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="10"/>
+      <c r="A915" s="11"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="10"/>
+      <c r="A916" s="11"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="10"/>
+      <c r="A917" s="11"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="10"/>
+      <c r="A918" s="11"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="10"/>
+      <c r="A919" s="11"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="10"/>
+      <c r="A920" s="11"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="10"/>
+      <c r="A921" s="11"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="10"/>
+      <c r="A922" s="11"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="10"/>
+      <c r="A923" s="11"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="10"/>
+      <c r="A924" s="11"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="10"/>
+      <c r="A925" s="11"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="10"/>
+      <c r="A926" s="11"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="10"/>
+      <c r="A927" s="11"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="10"/>
+      <c r="A928" s="11"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="10"/>
+      <c r="A929" s="11"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="10"/>
+      <c r="A930" s="11"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="10"/>
+      <c r="A931" s="11"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="10"/>
+      <c r="A932" s="11"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="10"/>
+      <c r="A933" s="11"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="10"/>
+      <c r="A934" s="11"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="10"/>
+      <c r="A935" s="11"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="10"/>
+      <c r="A936" s="11"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="10"/>
+      <c r="A937" s="11"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="10"/>
+      <c r="A938" s="11"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="10"/>
+      <c r="A939" s="11"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="10"/>
+      <c r="A940" s="11"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="10"/>
+      <c r="A941" s="11"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="10"/>
+      <c r="A942" s="11"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="10"/>
+      <c r="A943" s="11"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="10"/>
+      <c r="A944" s="11"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="10"/>
+      <c r="A945" s="11"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="10"/>
+      <c r="A946" s="11"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="10"/>
+      <c r="A947" s="11"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="10"/>
+      <c r="A948" s="11"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="10"/>
+      <c r="A949" s="11"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="10"/>
+      <c r="A950" s="11"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="10"/>
+      <c r="A951" s="11"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="10"/>
+      <c r="A952" s="11"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="10"/>
+      <c r="A953" s="11"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="10"/>
+      <c r="A954" s="11"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="10"/>
+      <c r="A955" s="11"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="10"/>
+      <c r="A956" s="11"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="10"/>
+      <c r="A957" s="11"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="10"/>
+      <c r="A958" s="11"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="10"/>
+      <c r="A959" s="11"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="10"/>
+      <c r="A960" s="11"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="10"/>
+      <c r="A961" s="11"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="10"/>
+      <c r="A962" s="11"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="10"/>
+      <c r="A963" s="11"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="10"/>
+      <c r="A964" s="11"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="10"/>
+      <c r="A965" s="11"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="10"/>
+      <c r="A966" s="11"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="10"/>
+      <c r="A967" s="11"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="10"/>
+      <c r="A968" s="11"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="10"/>
+      <c r="A969" s="11"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="10"/>
+      <c r="A970" s="11"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="10"/>
+      <c r="A971" s="11"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="10"/>
+      <c r="A972" s="11"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="10"/>
+      <c r="A973" s="11"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="10"/>
+      <c r="A974" s="11"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="10"/>
+      <c r="A975" s="11"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="10"/>
+      <c r="A976" s="11"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="10"/>
+      <c r="A977" s="11"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="10"/>
+      <c r="A978" s="11"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="10"/>
+      <c r="A979" s="11"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="10"/>
+      <c r="A980" s="11"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="10"/>
+      <c r="A981" s="11"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="10"/>
+      <c r="A982" s="11"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="10"/>
+      <c r="A983" s="11"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="10"/>
+      <c r="A984" s="11"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="10"/>
+      <c r="A985" s="11"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="10"/>
+      <c r="A986" s="11"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="10"/>
+      <c r="A987" s="11"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="10"/>
+      <c r="A988" s="11"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="10"/>
+      <c r="A989" s="11"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="10"/>
+      <c r="A990" s="11"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="10"/>
+      <c r="A991" s="11"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="10"/>
+      <c r="A992" s="11"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="10"/>
+      <c r="A993" s="11"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="10"/>
+      <c r="A994" s="11"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="10"/>
+      <c r="A995" s="11"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="10"/>
+      <c r="A996" s="11"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="10"/>
+      <c r="A997" s="11"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="10"/>
+      <c r="A998" s="11"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="10"/>
+      <c r="A999" s="11"/>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="10"/>
+      <c r="A1000" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -256,10 +256,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E70" activeCellId="0" sqref="E70"/>
+      <selection pane="bottomLeft" activeCell="D75" activeCellId="0" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1724,7 +1724,7 @@
         <v>44278</v>
       </c>
       <c r="B65" s="10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C65" s="10" t="n">
         <v>1</v>
@@ -1733,7 +1733,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F65" s="7" t="str">
         <f aca="false">IF(E65=D65+C65+B65,"","X")</f>
@@ -1746,7 +1746,7 @@
         <v>44279</v>
       </c>
       <c r="B66" s="10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" s="10" t="n">
         <v>2</v>
@@ -1755,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F66" s="7" t="str">
         <f aca="false">IF(E66=D66+C66+B66,"","X")</f>
@@ -1768,16 +1768,20 @@
         <v>44280</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F67" s="7" t="str">
+        <f aca="false">IF(E67=D67+C67+B67,"","X")</f>
+        <v/>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,7 +1790,7 @@
         <v>44281</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>3</v>
@@ -1795,7 +1799,11 @@
         <v>1</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F68" s="7" t="str">
+        <f aca="false">IF(E68=D68+C68+B68,"","X")</f>
+        <v/>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,7 +1812,7 @@
         <v>44282</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>1</v>
@@ -1813,7 +1821,11 @@
         <v>0</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F69" s="7" t="str">
+        <f aca="false">IF(E69=D69+C69+B69,"","X")</f>
+        <v/>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,7 +1834,7 @@
         <v>44283</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>0</v>
@@ -1831,20 +1843,100 @@
         <v>2</v>
       </c>
       <c r="E70" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F70" s="7" t="str">
+        <f aca="false">IF(E70=D70+C70+B70,"","X")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="n">
+        <f aca="false">A70+1</f>
+        <v>44284</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F71" s="7" t="str">
+        <f aca="false">IF(E71=D71+C71+B71,"","X")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="n">
+        <f aca="false">A71+1</f>
+        <v>44285</v>
+      </c>
+      <c r="B72" s="0" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="11"/>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="11"/>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="11"/>
+      <c r="C72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F72" s="7" t="str">
+        <f aca="false">IF(E72=D72+C72+B72,"","X")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="n">
+        <f aca="false">A72+1</f>
+        <v>44286</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F73" s="7" t="str">
+        <f aca="false">IF(E73=D73+C73+B73,"","X")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="n">
+        <f aca="false">A73+1</f>
+        <v>44287</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F74" s="7" t="str">
+        <f aca="false">IF(E74=D74+C74+B74,"","X")</f>
+        <v/>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="11"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -125,7 +125,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -158,19 +158,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,9 +250,9 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="F80" activeCellId="0" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -751,7 +743,7 @@
       <c r="B22" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="6" t="n">
@@ -908,10 +900,10 @@
       <c r="B29" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D29" s="10" t="n">
+      <c r="D29" s="9" t="n">
         <f aca="false">E29-C29-B29</f>
         <v>1</v>
       </c>
@@ -953,10 +945,10 @@
       <c r="B31" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D31" s="11" t="n">
+      <c r="D31" s="7" t="n">
         <f aca="false">E31-C31-B31</f>
         <v>3</v>
       </c>
@@ -1068,10 +1060,10 @@
       <c r="B36" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="C36" s="9" t="n">
+      <c r="C36" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D36" s="9" t="n">
         <f aca="false">E36-C36-B36</f>
         <v>1</v>
       </c>
@@ -1180,10 +1172,10 @@
       <c r="B41" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="C41" s="8" t="n">
+      <c r="C41" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D41" s="11" t="n">
+      <c r="D41" s="7" t="n">
         <v>3</v>
       </c>
       <c r="E41" s="6" t="n">
@@ -1202,7 +1194,7 @@
       <c r="B42" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="C42" s="8" t="n">
+      <c r="C42" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D42" s="6" t="n">
@@ -1224,10 +1216,10 @@
       <c r="B43" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="C43" s="8" t="n">
+      <c r="C43" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D43" s="11" t="n">
+      <c r="D43" s="7" t="n">
         <v>3</v>
       </c>
       <c r="E43" s="6" t="n">
@@ -1246,10 +1238,10 @@
       <c r="B44" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="C44" s="9" t="n">
+      <c r="C44" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="10" t="n">
+      <c r="D44" s="9" t="n">
         <f aca="false">E44-C44-B44</f>
         <v>2</v>
       </c>
@@ -1269,10 +1261,10 @@
       <c r="B45" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="C45" s="8" t="n">
+      <c r="C45" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D45" s="11" t="n">
+      <c r="D45" s="7" t="n">
         <v>3</v>
       </c>
       <c r="E45" s="6" t="n">
@@ -1314,10 +1306,10 @@
       <c r="B47" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="C47" s="9" t="n">
+      <c r="C47" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D47" s="10" t="n">
+      <c r="D47" s="9" t="n">
         <f aca="false">E47-C47-B47</f>
         <v>2</v>
       </c>
@@ -1404,10 +1396,10 @@
       <c r="B51" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="C51" s="8" t="n">
+      <c r="C51" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D51" s="11" t="n">
+      <c r="D51" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="6" t="n">
@@ -1426,10 +1418,10 @@
       <c r="B52" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="C52" s="8" t="n">
+      <c r="C52" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D52" s="11" t="n">
+      <c r="D52" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E52" s="6" t="n">
@@ -1448,10 +1440,10 @@
       <c r="B53" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="C53" s="9" t="n">
+      <c r="C53" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D53" s="10" t="n">
+      <c r="D53" s="9" t="n">
         <v>2</v>
       </c>
       <c r="E53" s="6" t="n">
@@ -1470,10 +1462,10 @@
       <c r="B54" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C54" s="8" t="n">
+      <c r="C54" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D54" s="11" t="n">
+      <c r="D54" s="7" t="n">
         <f aca="false">E54-C54-B54</f>
         <v>0</v>
       </c>
@@ -1493,10 +1485,10 @@
       <c r="B55" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C55" s="8" t="n">
+      <c r="C55" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D55" s="11" t="n">
+      <c r="D55" s="7" t="n">
         <f aca="false">E55-C55-B55</f>
         <v>3</v>
       </c>
@@ -1516,10 +1508,10 @@
       <c r="B56" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="C56" s="8" t="n">
+      <c r="C56" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D56" s="11" t="n">
+      <c r="D56" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E56" s="6" t="n">
@@ -1538,10 +1530,10 @@
       <c r="B57" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C57" s="8" t="n">
+      <c r="C57" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D57" s="11" t="n">
+      <c r="D57" s="7" t="n">
         <v>3</v>
       </c>
       <c r="E57" s="6" t="n">
@@ -1934,7 +1926,7 @@
         <v>44288</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>2</v>
@@ -1943,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F75" s="7" t="str">
         <f aca="false">IF(E75=D75+C75+B75,"","X")</f>
@@ -1978,16 +1970,16 @@
         <v>44290</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F77" s="7" t="str">
         <f aca="false">IF(E77=D77+C77+B77,"","X")</f>
@@ -1995,2773 +1987,2830 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12"/>
+      <c r="A78" s="5" t="n">
+        <f aca="false">A77+1</f>
+        <v>44291</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F78" s="7" t="str">
+        <f aca="false">IF(E78=D78+C78+B78,"","X")</f>
+        <v/>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12"/>
+      <c r="A79" s="5" t="n">
+        <f aca="false">A78+1</f>
+        <v>44292</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F79" s="7" t="str">
+        <f aca="false">IF(E79=D79+C79+B79,"","X")</f>
+        <v/>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12"/>
+      <c r="A80" s="5" t="n">
+        <f aca="false">A79+1</f>
+        <v>44293</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F80" s="7" t="str">
+        <f aca="false">IF(E80=D80+C80+B80,"","X")</f>
+        <v/>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12"/>
+      <c r="A81" s="10"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12"/>
+      <c r="A82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12"/>
+      <c r="A83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12"/>
+      <c r="A84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12"/>
+      <c r="A85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12"/>
+      <c r="A86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12"/>
+      <c r="A87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12"/>
+      <c r="A88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12"/>
+      <c r="A89" s="10"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12"/>
+      <c r="A90" s="10"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12"/>
+      <c r="A91" s="10"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="12"/>
+      <c r="A92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="12"/>
+      <c r="A93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12"/>
+      <c r="A94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12"/>
+      <c r="A95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="12"/>
+      <c r="A96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12"/>
+      <c r="A97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="12"/>
+      <c r="A98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12"/>
+      <c r="A99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="12"/>
+      <c r="A100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12"/>
+      <c r="A101" s="10"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12"/>
+      <c r="A102" s="10"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="12"/>
+      <c r="A103" s="10"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="12"/>
+      <c r="A104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="12"/>
+      <c r="A105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="12"/>
+      <c r="A106" s="10"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="12"/>
+      <c r="A107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12"/>
+      <c r="A108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="12"/>
+      <c r="A109" s="10"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12"/>
+      <c r="A110" s="10"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="12"/>
+      <c r="A111" s="10"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="12"/>
+      <c r="A112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="12"/>
+      <c r="A113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="12"/>
+      <c r="A114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="12"/>
+      <c r="A115" s="10"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="12"/>
+      <c r="A116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="12"/>
+      <c r="A117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="12"/>
+      <c r="A118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="12"/>
+      <c r="A119" s="10"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="12"/>
+      <c r="A120" s="10"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12"/>
+      <c r="A121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="12"/>
+      <c r="A122" s="10"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="12"/>
+      <c r="A123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="12"/>
+      <c r="A124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="12"/>
+      <c r="A125" s="10"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="12"/>
+      <c r="A126" s="10"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12"/>
+      <c r="A127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="12"/>
+      <c r="A128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12"/>
+      <c r="A129" s="10"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="12"/>
+      <c r="A130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="12"/>
+      <c r="A131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="12"/>
+      <c r="A132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12"/>
+      <c r="A133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="12"/>
+      <c r="A134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="12"/>
+      <c r="A135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="12"/>
+      <c r="A136" s="10"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="12"/>
+      <c r="A137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="12"/>
+      <c r="A138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="12"/>
+      <c r="A139" s="10"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="12"/>
+      <c r="A140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="12"/>
+      <c r="A141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="12"/>
+      <c r="A142" s="10"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="12"/>
+      <c r="A143" s="10"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="12"/>
+      <c r="A144" s="10"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="12"/>
+      <c r="A145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="12"/>
+      <c r="A146" s="10"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="12"/>
+      <c r="A147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="12"/>
+      <c r="A148" s="10"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="12"/>
+      <c r="A149" s="10"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="12"/>
+      <c r="A150" s="10"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="12"/>
+      <c r="A151" s="10"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="12"/>
+      <c r="A152" s="10"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="12"/>
+      <c r="A153" s="10"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="12"/>
+      <c r="A154" s="10"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="12"/>
+      <c r="A155" s="10"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="12"/>
+      <c r="A156" s="10"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="12"/>
+      <c r="A157" s="10"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="12"/>
+      <c r="A158" s="10"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="12"/>
+      <c r="A159" s="10"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="12"/>
+      <c r="A160" s="10"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="12"/>
+      <c r="A161" s="10"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="12"/>
+      <c r="A162" s="10"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="12"/>
+      <c r="A163" s="10"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="12"/>
+      <c r="A164" s="10"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="12"/>
+      <c r="A165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="12"/>
+      <c r="A166" s="10"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="12"/>
+      <c r="A167" s="10"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="12"/>
+      <c r="A168" s="10"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="12"/>
+      <c r="A169" s="10"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="12"/>
+      <c r="A170" s="10"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="12"/>
+      <c r="A171" s="10"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="12"/>
+      <c r="A172" s="10"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="12"/>
+      <c r="A173" s="10"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="12"/>
+      <c r="A174" s="10"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="12"/>
+      <c r="A175" s="10"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="12"/>
+      <c r="A176" s="10"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="12"/>
+      <c r="A177" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="12"/>
+      <c r="A178" s="10"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="12"/>
+      <c r="A179" s="10"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="12"/>
+      <c r="A180" s="10"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="12"/>
+      <c r="A181" s="10"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="12"/>
+      <c r="A182" s="10"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="12"/>
+      <c r="A183" s="10"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="12"/>
+      <c r="A184" s="10"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="12"/>
+      <c r="A185" s="10"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="12"/>
+      <c r="A186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="12"/>
+      <c r="A187" s="10"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="12"/>
+      <c r="A188" s="10"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="12"/>
+      <c r="A189" s="10"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="12"/>
+      <c r="A190" s="10"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="12"/>
+      <c r="A191" s="10"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="12"/>
+      <c r="A192" s="10"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="12"/>
+      <c r="A193" s="10"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="12"/>
+      <c r="A194" s="10"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="12"/>
+      <c r="A195" s="10"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="12"/>
+      <c r="A196" s="10"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="12"/>
+      <c r="A197" s="10"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="12"/>
+      <c r="A198" s="10"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="12"/>
+      <c r="A199" s="10"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="12"/>
+      <c r="A200" s="10"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="12"/>
+      <c r="A201" s="10"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="12"/>
+      <c r="A202" s="10"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="12"/>
+      <c r="A203" s="10"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="12"/>
+      <c r="A204" s="10"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="12"/>
+      <c r="A205" s="10"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="12"/>
+      <c r="A206" s="10"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="12"/>
+      <c r="A207" s="10"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="12"/>
+      <c r="A208" s="10"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="12"/>
+      <c r="A209" s="10"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="12"/>
+      <c r="A210" s="10"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="12"/>
+      <c r="A211" s="10"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="12"/>
+      <c r="A212" s="10"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="12"/>
+      <c r="A213" s="10"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="12"/>
+      <c r="A214" s="10"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="12"/>
+      <c r="A215" s="10"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="12"/>
+      <c r="A216" s="10"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="12"/>
+      <c r="A217" s="10"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="12"/>
+      <c r="A218" s="10"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="12"/>
+      <c r="A219" s="10"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="12"/>
+      <c r="A220" s="10"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="12"/>
+      <c r="A221" s="10"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="12"/>
+      <c r="A222" s="10"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="12"/>
+      <c r="A223" s="10"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="12"/>
+      <c r="A224" s="10"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="12"/>
+      <c r="A225" s="10"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="12"/>
+      <c r="A226" s="10"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="12"/>
+      <c r="A227" s="10"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="12"/>
+      <c r="A228" s="10"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="12"/>
+      <c r="A229" s="10"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="12"/>
+      <c r="A230" s="10"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="12"/>
+      <c r="A231" s="10"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="12"/>
+      <c r="A232" s="10"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="12"/>
+      <c r="A233" s="10"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="12"/>
+      <c r="A234" s="10"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="12"/>
+      <c r="A235" s="10"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="12"/>
+      <c r="A236" s="10"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="12"/>
+      <c r="A237" s="10"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="12"/>
+      <c r="A238" s="10"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="12"/>
+      <c r="A239" s="10"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="12"/>
+      <c r="A240" s="10"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="12"/>
+      <c r="A241" s="10"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="12"/>
+      <c r="A242" s="10"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="12"/>
+      <c r="A243" s="10"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="12"/>
+      <c r="A244" s="10"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="12"/>
+      <c r="A245" s="10"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="12"/>
+      <c r="A246" s="10"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="12"/>
+      <c r="A247" s="10"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="12"/>
+      <c r="A248" s="10"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="12"/>
+      <c r="A249" s="10"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="12"/>
+      <c r="A250" s="10"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="12"/>
+      <c r="A251" s="10"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="12"/>
+      <c r="A252" s="10"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="12"/>
+      <c r="A253" s="10"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="12"/>
+      <c r="A254" s="10"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="12"/>
+      <c r="A255" s="10"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="12"/>
+      <c r="A256" s="10"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="12"/>
+      <c r="A257" s="10"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="12"/>
+      <c r="A258" s="10"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="12"/>
+      <c r="A259" s="10"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="12"/>
+      <c r="A260" s="10"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="12"/>
+      <c r="A261" s="10"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="12"/>
+      <c r="A262" s="10"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="12"/>
+      <c r="A263" s="10"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="12"/>
+      <c r="A264" s="10"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="12"/>
+      <c r="A265" s="10"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="12"/>
+      <c r="A266" s="10"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="12"/>
+      <c r="A267" s="10"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="12"/>
+      <c r="A268" s="10"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="12"/>
+      <c r="A269" s="10"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="12"/>
+      <c r="A270" s="10"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="12"/>
+      <c r="A271" s="10"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="12"/>
+      <c r="A272" s="10"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="12"/>
+      <c r="A273" s="10"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="12"/>
+      <c r="A274" s="10"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="12"/>
+      <c r="A275" s="10"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="12"/>
+      <c r="A276" s="10"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="12"/>
+      <c r="A277" s="10"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="12"/>
+      <c r="A278" s="10"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="12"/>
+      <c r="A279" s="10"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="12"/>
+      <c r="A280" s="10"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="12"/>
+      <c r="A281" s="10"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="12"/>
+      <c r="A282" s="10"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="12"/>
+      <c r="A283" s="10"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="12"/>
+      <c r="A284" s="10"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="12"/>
+      <c r="A285" s="10"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="12"/>
+      <c r="A286" s="10"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="12"/>
+      <c r="A287" s="10"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="12"/>
+      <c r="A288" s="10"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="12"/>
+      <c r="A289" s="10"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="12"/>
+      <c r="A290" s="10"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="12"/>
+      <c r="A291" s="10"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="12"/>
+      <c r="A292" s="10"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="12"/>
+      <c r="A293" s="10"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="12"/>
+      <c r="A294" s="10"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="12"/>
+      <c r="A295" s="10"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="12"/>
+      <c r="A296" s="10"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="12"/>
+      <c r="A297" s="10"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="12"/>
+      <c r="A298" s="10"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="12"/>
+      <c r="A299" s="10"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="12"/>
+      <c r="A300" s="10"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="12"/>
+      <c r="A301" s="10"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="12"/>
+      <c r="A302" s="10"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="12"/>
+      <c r="A303" s="10"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="12"/>
+      <c r="A304" s="10"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="12"/>
+      <c r="A305" s="10"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="12"/>
+      <c r="A306" s="10"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="12"/>
+      <c r="A307" s="10"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="12"/>
+      <c r="A308" s="10"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="12"/>
+      <c r="A309" s="10"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="12"/>
+      <c r="A310" s="10"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="12"/>
+      <c r="A311" s="10"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="12"/>
+      <c r="A312" s="10"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="12"/>
+      <c r="A313" s="10"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="12"/>
+      <c r="A314" s="10"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="12"/>
+      <c r="A315" s="10"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="12"/>
+      <c r="A316" s="10"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="12"/>
+      <c r="A317" s="10"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="12"/>
+      <c r="A318" s="10"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="12"/>
+      <c r="A319" s="10"/>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="12"/>
+      <c r="A320" s="10"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="12"/>
+      <c r="A321" s="10"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="12"/>
+      <c r="A322" s="10"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="12"/>
+      <c r="A323" s="10"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="12"/>
+      <c r="A324" s="10"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="12"/>
+      <c r="A325" s="10"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="12"/>
+      <c r="A326" s="10"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="12"/>
+      <c r="A327" s="10"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="12"/>
+      <c r="A328" s="10"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="12"/>
+      <c r="A329" s="10"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="12"/>
+      <c r="A330" s="10"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="12"/>
+      <c r="A331" s="10"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="12"/>
+      <c r="A332" s="10"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="12"/>
+      <c r="A333" s="10"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="12"/>
+      <c r="A334" s="10"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="12"/>
+      <c r="A335" s="10"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="12"/>
+      <c r="A336" s="10"/>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="12"/>
+      <c r="A337" s="10"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="12"/>
+      <c r="A338" s="10"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="12"/>
+      <c r="A339" s="10"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="12"/>
+      <c r="A340" s="10"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="12"/>
+      <c r="A341" s="10"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="12"/>
+      <c r="A342" s="10"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="12"/>
+      <c r="A343" s="10"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="12"/>
+      <c r="A344" s="10"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="12"/>
+      <c r="A345" s="10"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="12"/>
+      <c r="A346" s="10"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="12"/>
+      <c r="A347" s="10"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="12"/>
+      <c r="A348" s="10"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="12"/>
+      <c r="A349" s="10"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="12"/>
+      <c r="A350" s="10"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="12"/>
+      <c r="A351" s="10"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="12"/>
+      <c r="A352" s="10"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="12"/>
+      <c r="A353" s="10"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="12"/>
+      <c r="A354" s="10"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="12"/>
+      <c r="A355" s="10"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="12"/>
+      <c r="A356" s="10"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="12"/>
+      <c r="A357" s="10"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="12"/>
+      <c r="A358" s="10"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="12"/>
+      <c r="A359" s="10"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="12"/>
+      <c r="A360" s="10"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="12"/>
+      <c r="A361" s="10"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="12"/>
+      <c r="A362" s="10"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="12"/>
+      <c r="A363" s="10"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="12"/>
+      <c r="A364" s="10"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="12"/>
+      <c r="A365" s="10"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="12"/>
+      <c r="A366" s="10"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="12"/>
+      <c r="A367" s="10"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="12"/>
+      <c r="A368" s="10"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="12"/>
+      <c r="A369" s="10"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="12"/>
+      <c r="A370" s="10"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="12"/>
+      <c r="A371" s="10"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="12"/>
+      <c r="A372" s="10"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="12"/>
+      <c r="A373" s="10"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="12"/>
+      <c r="A374" s="10"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="12"/>
+      <c r="A375" s="10"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="12"/>
+      <c r="A376" s="10"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="12"/>
+      <c r="A377" s="10"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="12"/>
+      <c r="A378" s="10"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="12"/>
+      <c r="A379" s="10"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="12"/>
+      <c r="A380" s="10"/>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="12"/>
+      <c r="A381" s="10"/>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="12"/>
+      <c r="A382" s="10"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="12"/>
+      <c r="A383" s="10"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="12"/>
+      <c r="A384" s="10"/>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="12"/>
+      <c r="A385" s="10"/>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="12"/>
+      <c r="A386" s="10"/>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="12"/>
+      <c r="A387" s="10"/>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="12"/>
+      <c r="A388" s="10"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="12"/>
+      <c r="A389" s="10"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="12"/>
+      <c r="A390" s="10"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="12"/>
+      <c r="A391" s="10"/>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="12"/>
+      <c r="A392" s="10"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="12"/>
+      <c r="A393" s="10"/>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="12"/>
+      <c r="A394" s="10"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="12"/>
+      <c r="A395" s="10"/>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="12"/>
+      <c r="A396" s="10"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="12"/>
+      <c r="A397" s="10"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="12"/>
+      <c r="A398" s="10"/>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="12"/>
+      <c r="A399" s="10"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="12"/>
+      <c r="A400" s="10"/>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="12"/>
+      <c r="A401" s="10"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="12"/>
+      <c r="A402" s="10"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="12"/>
+      <c r="A403" s="10"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="12"/>
+      <c r="A404" s="10"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="12"/>
+      <c r="A405" s="10"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="12"/>
+      <c r="A406" s="10"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="12"/>
+      <c r="A407" s="10"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="12"/>
+      <c r="A408" s="10"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="12"/>
+      <c r="A409" s="10"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="12"/>
+      <c r="A410" s="10"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="12"/>
+      <c r="A411" s="10"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="12"/>
+      <c r="A412" s="10"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="12"/>
+      <c r="A413" s="10"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="12"/>
+      <c r="A414" s="10"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="12"/>
+      <c r="A415" s="10"/>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="12"/>
+      <c r="A416" s="10"/>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="12"/>
+      <c r="A417" s="10"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="12"/>
+      <c r="A418" s="10"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="12"/>
+      <c r="A419" s="10"/>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="12"/>
+      <c r="A420" s="10"/>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="12"/>
+      <c r="A421" s="10"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="12"/>
+      <c r="A422" s="10"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="12"/>
+      <c r="A423" s="10"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="12"/>
+      <c r="A424" s="10"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="12"/>
+      <c r="A425" s="10"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="12"/>
+      <c r="A426" s="10"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="12"/>
+      <c r="A427" s="10"/>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="12"/>
+      <c r="A428" s="10"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="12"/>
+      <c r="A429" s="10"/>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="12"/>
+      <c r="A430" s="10"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="12"/>
+      <c r="A431" s="10"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="12"/>
+      <c r="A432" s="10"/>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="12"/>
+      <c r="A433" s="10"/>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="12"/>
+      <c r="A434" s="10"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="12"/>
+      <c r="A435" s="10"/>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="12"/>
+      <c r="A436" s="10"/>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="12"/>
+      <c r="A437" s="10"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="12"/>
+      <c r="A438" s="10"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="12"/>
+      <c r="A439" s="10"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="12"/>
+      <c r="A440" s="10"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="12"/>
+      <c r="A441" s="10"/>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="12"/>
+      <c r="A442" s="10"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="12"/>
+      <c r="A443" s="10"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="12"/>
+      <c r="A444" s="10"/>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="12"/>
+      <c r="A445" s="10"/>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="12"/>
+      <c r="A446" s="10"/>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="12"/>
+      <c r="A447" s="10"/>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="12"/>
+      <c r="A448" s="10"/>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="12"/>
+      <c r="A449" s="10"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="12"/>
+      <c r="A450" s="10"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="12"/>
+      <c r="A451" s="10"/>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="12"/>
+      <c r="A452" s="10"/>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="12"/>
+      <c r="A453" s="10"/>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="12"/>
+      <c r="A454" s="10"/>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="12"/>
+      <c r="A455" s="10"/>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="12"/>
+      <c r="A456" s="10"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="12"/>
+      <c r="A457" s="10"/>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="12"/>
+      <c r="A458" s="10"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="12"/>
+      <c r="A459" s="10"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="12"/>
+      <c r="A460" s="10"/>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="12"/>
+      <c r="A461" s="10"/>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="12"/>
+      <c r="A462" s="10"/>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="12"/>
+      <c r="A463" s="10"/>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="12"/>
+      <c r="A464" s="10"/>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="12"/>
+      <c r="A465" s="10"/>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="12"/>
+      <c r="A466" s="10"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="12"/>
+      <c r="A467" s="10"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="12"/>
+      <c r="A468" s="10"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="12"/>
+      <c r="A469" s="10"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="12"/>
+      <c r="A470" s="10"/>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="12"/>
+      <c r="A471" s="10"/>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="12"/>
+      <c r="A472" s="10"/>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="12"/>
+      <c r="A473" s="10"/>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="12"/>
+      <c r="A474" s="10"/>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="12"/>
+      <c r="A475" s="10"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="12"/>
+      <c r="A476" s="10"/>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="12"/>
+      <c r="A477" s="10"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="12"/>
+      <c r="A478" s="10"/>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="12"/>
+      <c r="A479" s="10"/>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="12"/>
+      <c r="A480" s="10"/>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="12"/>
+      <c r="A481" s="10"/>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="12"/>
+      <c r="A482" s="10"/>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="12"/>
+      <c r="A483" s="10"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="12"/>
+      <c r="A484" s="10"/>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="12"/>
+      <c r="A485" s="10"/>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="12"/>
+      <c r="A486" s="10"/>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="12"/>
+      <c r="A487" s="10"/>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="12"/>
+      <c r="A488" s="10"/>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="12"/>
+      <c r="A489" s="10"/>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="12"/>
+      <c r="A490" s="10"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="12"/>
+      <c r="A491" s="10"/>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="12"/>
+      <c r="A492" s="10"/>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="12"/>
+      <c r="A493" s="10"/>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="12"/>
+      <c r="A494" s="10"/>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="12"/>
+      <c r="A495" s="10"/>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="12"/>
+      <c r="A496" s="10"/>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="12"/>
+      <c r="A497" s="10"/>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="12"/>
+      <c r="A498" s="10"/>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="12"/>
+      <c r="A499" s="10"/>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="12"/>
+      <c r="A500" s="10"/>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="12"/>
+      <c r="A501" s="10"/>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="12"/>
+      <c r="A502" s="10"/>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="12"/>
+      <c r="A503" s="10"/>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="12"/>
+      <c r="A504" s="10"/>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="12"/>
+      <c r="A505" s="10"/>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="12"/>
+      <c r="A506" s="10"/>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="12"/>
+      <c r="A507" s="10"/>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="12"/>
+      <c r="A508" s="10"/>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="12"/>
+      <c r="A509" s="10"/>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="12"/>
+      <c r="A510" s="10"/>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="12"/>
+      <c r="A511" s="10"/>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="12"/>
+      <c r="A512" s="10"/>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="12"/>
+      <c r="A513" s="10"/>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="12"/>
+      <c r="A514" s="10"/>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="12"/>
+      <c r="A515" s="10"/>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="12"/>
+      <c r="A516" s="10"/>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="12"/>
+      <c r="A517" s="10"/>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="12"/>
+      <c r="A518" s="10"/>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="12"/>
+      <c r="A519" s="10"/>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="12"/>
+      <c r="A520" s="10"/>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="12"/>
+      <c r="A521" s="10"/>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="12"/>
+      <c r="A522" s="10"/>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="12"/>
+      <c r="A523" s="10"/>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="12"/>
+      <c r="A524" s="10"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="12"/>
+      <c r="A525" s="10"/>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="12"/>
+      <c r="A526" s="10"/>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="12"/>
+      <c r="A527" s="10"/>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="12"/>
+      <c r="A528" s="10"/>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="12"/>
+      <c r="A529" s="10"/>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="12"/>
+      <c r="A530" s="10"/>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="12"/>
+      <c r="A531" s="10"/>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="12"/>
+      <c r="A532" s="10"/>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="12"/>
+      <c r="A533" s="10"/>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="12"/>
+      <c r="A534" s="10"/>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="12"/>
+      <c r="A535" s="10"/>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="12"/>
+      <c r="A536" s="10"/>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="12"/>
+      <c r="A537" s="10"/>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="12"/>
+      <c r="A538" s="10"/>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="12"/>
+      <c r="A539" s="10"/>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="12"/>
+      <c r="A540" s="10"/>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="12"/>
+      <c r="A541" s="10"/>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="12"/>
+      <c r="A542" s="10"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="12"/>
+      <c r="A543" s="10"/>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="12"/>
+      <c r="A544" s="10"/>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="12"/>
+      <c r="A545" s="10"/>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="12"/>
+      <c r="A546" s="10"/>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="12"/>
+      <c r="A547" s="10"/>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="12"/>
+      <c r="A548" s="10"/>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="12"/>
+      <c r="A549" s="10"/>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="12"/>
+      <c r="A550" s="10"/>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="12"/>
+      <c r="A551" s="10"/>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="12"/>
+      <c r="A552" s="10"/>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="12"/>
+      <c r="A553" s="10"/>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="12"/>
+      <c r="A554" s="10"/>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="12"/>
+      <c r="A555" s="10"/>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="12"/>
+      <c r="A556" s="10"/>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="12"/>
+      <c r="A557" s="10"/>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="12"/>
+      <c r="A558" s="10"/>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="12"/>
+      <c r="A559" s="10"/>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="12"/>
+      <c r="A560" s="10"/>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="12"/>
+      <c r="A561" s="10"/>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="12"/>
+      <c r="A562" s="10"/>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="12"/>
+      <c r="A563" s="10"/>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="12"/>
+      <c r="A564" s="10"/>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="12"/>
+      <c r="A565" s="10"/>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="12"/>
+      <c r="A566" s="10"/>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="12"/>
+      <c r="A567" s="10"/>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="12"/>
+      <c r="A568" s="10"/>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="12"/>
+      <c r="A569" s="10"/>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="12"/>
+      <c r="A570" s="10"/>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="12"/>
+      <c r="A571" s="10"/>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="12"/>
+      <c r="A572" s="10"/>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="12"/>
+      <c r="A573" s="10"/>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="12"/>
+      <c r="A574" s="10"/>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="12"/>
+      <c r="A575" s="10"/>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="12"/>
+      <c r="A576" s="10"/>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="12"/>
+      <c r="A577" s="10"/>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="12"/>
+      <c r="A578" s="10"/>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="12"/>
+      <c r="A579" s="10"/>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="12"/>
+      <c r="A580" s="10"/>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="12"/>
+      <c r="A581" s="10"/>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="12"/>
+      <c r="A582" s="10"/>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="12"/>
+      <c r="A583" s="10"/>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="12"/>
+      <c r="A584" s="10"/>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="12"/>
+      <c r="A585" s="10"/>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="12"/>
+      <c r="A586" s="10"/>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="12"/>
+      <c r="A587" s="10"/>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="12"/>
+      <c r="A588" s="10"/>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="12"/>
+      <c r="A589" s="10"/>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="12"/>
+      <c r="A590" s="10"/>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="12"/>
+      <c r="A591" s="10"/>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="12"/>
+      <c r="A592" s="10"/>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="12"/>
+      <c r="A593" s="10"/>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="12"/>
+      <c r="A594" s="10"/>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="12"/>
+      <c r="A595" s="10"/>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="12"/>
+      <c r="A596" s="10"/>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="12"/>
+      <c r="A597" s="10"/>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="12"/>
+      <c r="A598" s="10"/>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="12"/>
+      <c r="A599" s="10"/>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="12"/>
+      <c r="A600" s="10"/>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="12"/>
+      <c r="A601" s="10"/>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="12"/>
+      <c r="A602" s="10"/>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="12"/>
+      <c r="A603" s="10"/>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="12"/>
+      <c r="A604" s="10"/>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="12"/>
+      <c r="A605" s="10"/>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="12"/>
+      <c r="A606" s="10"/>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="12"/>
+      <c r="A607" s="10"/>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="12"/>
+      <c r="A608" s="10"/>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="12"/>
+      <c r="A609" s="10"/>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="12"/>
+      <c r="A610" s="10"/>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="12"/>
+      <c r="A611" s="10"/>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="12"/>
+      <c r="A612" s="10"/>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="12"/>
+      <c r="A613" s="10"/>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="12"/>
+      <c r="A614" s="10"/>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="12"/>
+      <c r="A615" s="10"/>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="12"/>
+      <c r="A616" s="10"/>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="12"/>
+      <c r="A617" s="10"/>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="12"/>
+      <c r="A618" s="10"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="12"/>
+      <c r="A619" s="10"/>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="12"/>
+      <c r="A620" s="10"/>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="12"/>
+      <c r="A621" s="10"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="12"/>
+      <c r="A622" s="10"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="12"/>
+      <c r="A623" s="10"/>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="12"/>
+      <c r="A624" s="10"/>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="12"/>
+      <c r="A625" s="10"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="12"/>
+      <c r="A626" s="10"/>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="12"/>
+      <c r="A627" s="10"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="12"/>
+      <c r="A628" s="10"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="12"/>
+      <c r="A629" s="10"/>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="12"/>
+      <c r="A630" s="10"/>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="12"/>
+      <c r="A631" s="10"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="12"/>
+      <c r="A632" s="10"/>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="12"/>
+      <c r="A633" s="10"/>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="12"/>
+      <c r="A634" s="10"/>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="12"/>
+      <c r="A635" s="10"/>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="12"/>
+      <c r="A636" s="10"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="12"/>
+      <c r="A637" s="10"/>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="12"/>
+      <c r="A638" s="10"/>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="12"/>
+      <c r="A639" s="10"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="12"/>
+      <c r="A640" s="10"/>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="12"/>
+      <c r="A641" s="10"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="12"/>
+      <c r="A642" s="10"/>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="12"/>
+      <c r="A643" s="10"/>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="12"/>
+      <c r="A644" s="10"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="12"/>
+      <c r="A645" s="10"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="12"/>
+      <c r="A646" s="10"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="12"/>
+      <c r="A647" s="10"/>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="12"/>
+      <c r="A648" s="10"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="12"/>
+      <c r="A649" s="10"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="12"/>
+      <c r="A650" s="10"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="12"/>
+      <c r="A651" s="10"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="12"/>
+      <c r="A652" s="10"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="12"/>
+      <c r="A653" s="10"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="12"/>
+      <c r="A654" s="10"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="12"/>
+      <c r="A655" s="10"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="12"/>
+      <c r="A656" s="10"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="12"/>
+      <c r="A657" s="10"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="12"/>
+      <c r="A658" s="10"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="12"/>
+      <c r="A659" s="10"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="12"/>
+      <c r="A660" s="10"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="12"/>
+      <c r="A661" s="10"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="12"/>
+      <c r="A662" s="10"/>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="12"/>
+      <c r="A663" s="10"/>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="12"/>
+      <c r="A664" s="10"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="12"/>
+      <c r="A665" s="10"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="12"/>
+      <c r="A666" s="10"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="12"/>
+      <c r="A667" s="10"/>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="12"/>
+      <c r="A668" s="10"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="12"/>
+      <c r="A669" s="10"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="12"/>
+      <c r="A670" s="10"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="12"/>
+      <c r="A671" s="10"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="12"/>
+      <c r="A672" s="10"/>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="12"/>
+      <c r="A673" s="10"/>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="12"/>
+      <c r="A674" s="10"/>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="12"/>
+      <c r="A675" s="10"/>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="12"/>
+      <c r="A676" s="10"/>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="12"/>
+      <c r="A677" s="10"/>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="12"/>
+      <c r="A678" s="10"/>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="12"/>
+      <c r="A679" s="10"/>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="12"/>
+      <c r="A680" s="10"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="12"/>
+      <c r="A681" s="10"/>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="12"/>
+      <c r="A682" s="10"/>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="12"/>
+      <c r="A683" s="10"/>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="12"/>
+      <c r="A684" s="10"/>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="12"/>
+      <c r="A685" s="10"/>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="12"/>
+      <c r="A686" s="10"/>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="12"/>
+      <c r="A687" s="10"/>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="12"/>
+      <c r="A688" s="10"/>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="12"/>
+      <c r="A689" s="10"/>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="12"/>
+      <c r="A690" s="10"/>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="12"/>
+      <c r="A691" s="10"/>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="12"/>
+      <c r="A692" s="10"/>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="12"/>
+      <c r="A693" s="10"/>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="12"/>
+      <c r="A694" s="10"/>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="12"/>
+      <c r="A695" s="10"/>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="12"/>
+      <c r="A696" s="10"/>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="12"/>
+      <c r="A697" s="10"/>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="12"/>
+      <c r="A698" s="10"/>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="12"/>
+      <c r="A699" s="10"/>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="12"/>
+      <c r="A700" s="10"/>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="12"/>
+      <c r="A701" s="10"/>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="12"/>
+      <c r="A702" s="10"/>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="12"/>
+      <c r="A703" s="10"/>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="12"/>
+      <c r="A704" s="10"/>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="12"/>
+      <c r="A705" s="10"/>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="12"/>
+      <c r="A706" s="10"/>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="12"/>
+      <c r="A707" s="10"/>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="12"/>
+      <c r="A708" s="10"/>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="12"/>
+      <c r="A709" s="10"/>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="12"/>
+      <c r="A710" s="10"/>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="12"/>
+      <c r="A711" s="10"/>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="12"/>
+      <c r="A712" s="10"/>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="12"/>
+      <c r="A713" s="10"/>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="12"/>
+      <c r="A714" s="10"/>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="12"/>
+      <c r="A715" s="10"/>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="12"/>
+      <c r="A716" s="10"/>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="12"/>
+      <c r="A717" s="10"/>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="12"/>
+      <c r="A718" s="10"/>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="12"/>
+      <c r="A719" s="10"/>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="12"/>
+      <c r="A720" s="10"/>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="12"/>
+      <c r="A721" s="10"/>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="12"/>
+      <c r="A722" s="10"/>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="12"/>
+      <c r="A723" s="10"/>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="12"/>
+      <c r="A724" s="10"/>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="12"/>
+      <c r="A725" s="10"/>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="12"/>
+      <c r="A726" s="10"/>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="12"/>
+      <c r="A727" s="10"/>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="12"/>
+      <c r="A728" s="10"/>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="12"/>
+      <c r="A729" s="10"/>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="12"/>
+      <c r="A730" s="10"/>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="12"/>
+      <c r="A731" s="10"/>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="12"/>
+      <c r="A732" s="10"/>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="12"/>
+      <c r="A733" s="10"/>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="12"/>
+      <c r="A734" s="10"/>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="12"/>
+      <c r="A735" s="10"/>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="12"/>
+      <c r="A736" s="10"/>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="12"/>
+      <c r="A737" s="10"/>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="12"/>
+      <c r="A738" s="10"/>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="12"/>
+      <c r="A739" s="10"/>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="12"/>
+      <c r="A740" s="10"/>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="12"/>
+      <c r="A741" s="10"/>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="12"/>
+      <c r="A742" s="10"/>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="12"/>
+      <c r="A743" s="10"/>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="12"/>
+      <c r="A744" s="10"/>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="12"/>
+      <c r="A745" s="10"/>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="12"/>
+      <c r="A746" s="10"/>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="12"/>
+      <c r="A747" s="10"/>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="12"/>
+      <c r="A748" s="10"/>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="12"/>
+      <c r="A749" s="10"/>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="12"/>
+      <c r="A750" s="10"/>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="12"/>
+      <c r="A751" s="10"/>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="12"/>
+      <c r="A752" s="10"/>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="12"/>
+      <c r="A753" s="10"/>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="12"/>
+      <c r="A754" s="10"/>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="12"/>
+      <c r="A755" s="10"/>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="12"/>
+      <c r="A756" s="10"/>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="12"/>
+      <c r="A757" s="10"/>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="12"/>
+      <c r="A758" s="10"/>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="12"/>
+      <c r="A759" s="10"/>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="12"/>
+      <c r="A760" s="10"/>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="12"/>
+      <c r="A761" s="10"/>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="12"/>
+      <c r="A762" s="10"/>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="12"/>
+      <c r="A763" s="10"/>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="12"/>
+      <c r="A764" s="10"/>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="12"/>
+      <c r="A765" s="10"/>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="12"/>
+      <c r="A766" s="10"/>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="12"/>
+      <c r="A767" s="10"/>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="12"/>
+      <c r="A768" s="10"/>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="12"/>
+      <c r="A769" s="10"/>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="12"/>
+      <c r="A770" s="10"/>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="12"/>
+      <c r="A771" s="10"/>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="12"/>
+      <c r="A772" s="10"/>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="12"/>
+      <c r="A773" s="10"/>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="12"/>
+      <c r="A774" s="10"/>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="12"/>
+      <c r="A775" s="10"/>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="12"/>
+      <c r="A776" s="10"/>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="12"/>
+      <c r="A777" s="10"/>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="12"/>
+      <c r="A778" s="10"/>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="12"/>
+      <c r="A779" s="10"/>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="12"/>
+      <c r="A780" s="10"/>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="12"/>
+      <c r="A781" s="10"/>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="12"/>
+      <c r="A782" s="10"/>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="12"/>
+      <c r="A783" s="10"/>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="12"/>
+      <c r="A784" s="10"/>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="12"/>
+      <c r="A785" s="10"/>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="12"/>
+      <c r="A786" s="10"/>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="12"/>
+      <c r="A787" s="10"/>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="12"/>
+      <c r="A788" s="10"/>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="12"/>
+      <c r="A789" s="10"/>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="12"/>
+      <c r="A790" s="10"/>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="12"/>
+      <c r="A791" s="10"/>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="12"/>
+      <c r="A792" s="10"/>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="12"/>
+      <c r="A793" s="10"/>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="12"/>
+      <c r="A794" s="10"/>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="12"/>
+      <c r="A795" s="10"/>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="12"/>
+      <c r="A796" s="10"/>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="12"/>
+      <c r="A797" s="10"/>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="12"/>
+      <c r="A798" s="10"/>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="12"/>
+      <c r="A799" s="10"/>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="12"/>
+      <c r="A800" s="10"/>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="12"/>
+      <c r="A801" s="10"/>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="12"/>
+      <c r="A802" s="10"/>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="12"/>
+      <c r="A803" s="10"/>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="12"/>
+      <c r="A804" s="10"/>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="12"/>
+      <c r="A805" s="10"/>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="12"/>
+      <c r="A806" s="10"/>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="12"/>
+      <c r="A807" s="10"/>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="12"/>
+      <c r="A808" s="10"/>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="12"/>
+      <c r="A809" s="10"/>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="12"/>
+      <c r="A810" s="10"/>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="12"/>
+      <c r="A811" s="10"/>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="12"/>
+      <c r="A812" s="10"/>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="12"/>
+      <c r="A813" s="10"/>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="12"/>
+      <c r="A814" s="10"/>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="12"/>
+      <c r="A815" s="10"/>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="12"/>
+      <c r="A816" s="10"/>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="12"/>
+      <c r="A817" s="10"/>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="12"/>
+      <c r="A818" s="10"/>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="12"/>
+      <c r="A819" s="10"/>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="12"/>
+      <c r="A820" s="10"/>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="12"/>
+      <c r="A821" s="10"/>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="12"/>
+      <c r="A822" s="10"/>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="12"/>
+      <c r="A823" s="10"/>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="12"/>
+      <c r="A824" s="10"/>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="12"/>
+      <c r="A825" s="10"/>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="12"/>
+      <c r="A826" s="10"/>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="12"/>
+      <c r="A827" s="10"/>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="12"/>
+      <c r="A828" s="10"/>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="12"/>
+      <c r="A829" s="10"/>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="12"/>
+      <c r="A830" s="10"/>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="12"/>
+      <c r="A831" s="10"/>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="12"/>
+      <c r="A832" s="10"/>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="12"/>
+      <c r="A833" s="10"/>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="12"/>
+      <c r="A834" s="10"/>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="12"/>
+      <c r="A835" s="10"/>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="12"/>
+      <c r="A836" s="10"/>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="12"/>
+      <c r="A837" s="10"/>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="12"/>
+      <c r="A838" s="10"/>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="12"/>
+      <c r="A839" s="10"/>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="12"/>
+      <c r="A840" s="10"/>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="12"/>
+      <c r="A841" s="10"/>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="12"/>
+      <c r="A842" s="10"/>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="12"/>
+      <c r="A843" s="10"/>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="12"/>
+      <c r="A844" s="10"/>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="12"/>
+      <c r="A845" s="10"/>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="12"/>
+      <c r="A846" s="10"/>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="12"/>
+      <c r="A847" s="10"/>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="12"/>
+      <c r="A848" s="10"/>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="12"/>
+      <c r="A849" s="10"/>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="12"/>
+      <c r="A850" s="10"/>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="12"/>
+      <c r="A851" s="10"/>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="12"/>
+      <c r="A852" s="10"/>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="12"/>
+      <c r="A853" s="10"/>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="12"/>
+      <c r="A854" s="10"/>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="12"/>
+      <c r="A855" s="10"/>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="12"/>
+      <c r="A856" s="10"/>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="12"/>
+      <c r="A857" s="10"/>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="12"/>
+      <c r="A858" s="10"/>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="12"/>
+      <c r="A859" s="10"/>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="12"/>
+      <c r="A860" s="10"/>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="12"/>
+      <c r="A861" s="10"/>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="12"/>
+      <c r="A862" s="10"/>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="12"/>
+      <c r="A863" s="10"/>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="12"/>
+      <c r="A864" s="10"/>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="12"/>
+      <c r="A865" s="10"/>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="12"/>
+      <c r="A866" s="10"/>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="12"/>
+      <c r="A867" s="10"/>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="12"/>
+      <c r="A868" s="10"/>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="12"/>
+      <c r="A869" s="10"/>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="12"/>
+      <c r="A870" s="10"/>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="12"/>
+      <c r="A871" s="10"/>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="12"/>
+      <c r="A872" s="10"/>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="12"/>
+      <c r="A873" s="10"/>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="12"/>
+      <c r="A874" s="10"/>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="12"/>
+      <c r="A875" s="10"/>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="12"/>
+      <c r="A876" s="10"/>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="12"/>
+      <c r="A877" s="10"/>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="12"/>
+      <c r="A878" s="10"/>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="12"/>
+      <c r="A879" s="10"/>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="12"/>
+      <c r="A880" s="10"/>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="12"/>
+      <c r="A881" s="10"/>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="12"/>
+      <c r="A882" s="10"/>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="12"/>
+      <c r="A883" s="10"/>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="12"/>
+      <c r="A884" s="10"/>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="12"/>
+      <c r="A885" s="10"/>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="12"/>
+      <c r="A886" s="10"/>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="12"/>
+      <c r="A887" s="10"/>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="12"/>
+      <c r="A888" s="10"/>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="12"/>
+      <c r="A889" s="10"/>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="12"/>
+      <c r="A890" s="10"/>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="12"/>
+      <c r="A891" s="10"/>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="12"/>
+      <c r="A892" s="10"/>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="12"/>
+      <c r="A893" s="10"/>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="12"/>
+      <c r="A894" s="10"/>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="12"/>
+      <c r="A895" s="10"/>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="12"/>
+      <c r="A896" s="10"/>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="12"/>
+      <c r="A897" s="10"/>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="12"/>
+      <c r="A898" s="10"/>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="12"/>
+      <c r="A899" s="10"/>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="12"/>
+      <c r="A900" s="10"/>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="12"/>
+      <c r="A901" s="10"/>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="12"/>
+      <c r="A902" s="10"/>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="12"/>
+      <c r="A903" s="10"/>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="12"/>
+      <c r="A904" s="10"/>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="12"/>
+      <c r="A905" s="10"/>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="12"/>
+      <c r="A906" s="10"/>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="12"/>
+      <c r="A907" s="10"/>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="12"/>
+      <c r="A908" s="10"/>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="12"/>
+      <c r="A909" s="10"/>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="12"/>
+      <c r="A910" s="10"/>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="12"/>
+      <c r="A911" s="10"/>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="12"/>
+      <c r="A912" s="10"/>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="12"/>
+      <c r="A913" s="10"/>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="12"/>
+      <c r="A914" s="10"/>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="12"/>
+      <c r="A915" s="10"/>
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="12"/>
+      <c r="A916" s="10"/>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="12"/>
+      <c r="A917" s="10"/>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="12"/>
+      <c r="A918" s="10"/>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="12"/>
+      <c r="A919" s="10"/>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="12"/>
+      <c r="A920" s="10"/>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="12"/>
+      <c r="A921" s="10"/>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="12"/>
+      <c r="A922" s="10"/>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="12"/>
+      <c r="A923" s="10"/>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="12"/>
+      <c r="A924" s="10"/>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="12"/>
+      <c r="A925" s="10"/>
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="12"/>
+      <c r="A926" s="10"/>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="12"/>
+      <c r="A927" s="10"/>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="12"/>
+      <c r="A928" s="10"/>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="12"/>
+      <c r="A929" s="10"/>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="12"/>
+      <c r="A930" s="10"/>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="12"/>
+      <c r="A931" s="10"/>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="12"/>
+      <c r="A932" s="10"/>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="12"/>
+      <c r="A933" s="10"/>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="12"/>
+      <c r="A934" s="10"/>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="12"/>
+      <c r="A935" s="10"/>
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="12"/>
+      <c r="A936" s="10"/>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="12"/>
+      <c r="A937" s="10"/>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="12"/>
+      <c r="A938" s="10"/>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="12"/>
+      <c r="A939" s="10"/>
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="12"/>
+      <c r="A940" s="10"/>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="12"/>
+      <c r="A941" s="10"/>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="12"/>
+      <c r="A942" s="10"/>
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="12"/>
+      <c r="A943" s="10"/>
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="12"/>
+      <c r="A944" s="10"/>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="12"/>
+      <c r="A945" s="10"/>
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="12"/>
+      <c r="A946" s="10"/>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="12"/>
+      <c r="A947" s="10"/>
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="12"/>
+      <c r="A948" s="10"/>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="12"/>
+      <c r="A949" s="10"/>
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="12"/>
+      <c r="A950" s="10"/>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="12"/>
+      <c r="A951" s="10"/>
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="12"/>
+      <c r="A952" s="10"/>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="12"/>
+      <c r="A953" s="10"/>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="12"/>
+      <c r="A954" s="10"/>
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="12"/>
+      <c r="A955" s="10"/>
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="12"/>
+      <c r="A956" s="10"/>
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="12"/>
+      <c r="A957" s="10"/>
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="12"/>
+      <c r="A958" s="10"/>
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="12"/>
+      <c r="A959" s="10"/>
     </row>
     <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="12"/>
+      <c r="A960" s="10"/>
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="12"/>
+      <c r="A961" s="10"/>
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="12"/>
+      <c r="A962" s="10"/>
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="12"/>
+      <c r="A963" s="10"/>
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="12"/>
+      <c r="A964" s="10"/>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="12"/>
+      <c r="A965" s="10"/>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="12"/>
+      <c r="A966" s="10"/>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="12"/>
+      <c r="A967" s="10"/>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="12"/>
+      <c r="A968" s="10"/>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="12"/>
+      <c r="A969" s="10"/>
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="12"/>
+      <c r="A970" s="10"/>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="12"/>
+      <c r="A971" s="10"/>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="12"/>
+      <c r="A972" s="10"/>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="12"/>
+      <c r="A973" s="10"/>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="12"/>
+      <c r="A974" s="10"/>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="12"/>
+      <c r="A975" s="10"/>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="12"/>
+      <c r="A976" s="10"/>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="12"/>
+      <c r="A977" s="10"/>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="12"/>
+      <c r="A978" s="10"/>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="12"/>
+      <c r="A979" s="10"/>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="12"/>
+      <c r="A980" s="10"/>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="12"/>
+      <c r="A981" s="10"/>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="12"/>
+      <c r="A982" s="10"/>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="12"/>
+      <c r="A983" s="10"/>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="12"/>
+      <c r="A984" s="10"/>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="12"/>
+      <c r="A985" s="10"/>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="12"/>
+      <c r="A986" s="10"/>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="12"/>
+      <c r="A987" s="10"/>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="12"/>
+      <c r="A988" s="10"/>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="12"/>
+      <c r="A989" s="10"/>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="12"/>
+      <c r="A990" s="10"/>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="12"/>
+      <c r="A991" s="10"/>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="12"/>
+      <c r="A992" s="10"/>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="12"/>
+      <c r="A993" s="10"/>
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="12"/>
+      <c r="A994" s="10"/>
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="12"/>
+      <c r="A995" s="10"/>
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="12"/>
+      <c r="A996" s="10"/>
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="12"/>
+      <c r="A997" s="10"/>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="12"/>
+      <c r="A998" s="10"/>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="12"/>
+      <c r="A999" s="10"/>
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="12"/>
+      <c r="A1000" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -252,7 +252,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F80" activeCellId="0" sqref="F80"/>
+      <selection pane="bottomLeft" activeCell="E83" activeCellId="0" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2053,13 +2053,58 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10"/>
+      <c r="A81" s="5" t="n">
+        <f aca="false">A80+1</f>
+        <v>44294</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10"/>
+      <c r="A82" s="5" t="n">
+        <f aca="false">A81+1</f>
+        <v>44295</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10"/>
+      <c r="A83" s="5" t="n">
+        <f aca="false">A82+1</f>
+        <v>44296</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -252,7 +252,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E83" activeCellId="0" sqref="E83"/>
+      <selection pane="bottomLeft" activeCell="E85" activeCellId="0" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2107,7 +2107,22 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10"/>
+      <c r="A84" s="5" t="n">
+        <f aca="false">A83+1</f>
+        <v>44297</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -252,7 +252,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E85" activeCellId="0" sqref="E85"/>
+      <selection pane="bottomLeft" activeCell="D89" activeCellId="0" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2125,16 +2125,76 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10"/>
+      <c r="A85" s="5" t="n">
+        <f aca="false">A84+1</f>
+        <v>44298</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10"/>
+      <c r="A86" s="5" t="n">
+        <f aca="false">A85+1</f>
+        <v>44299</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10"/>
+      <c r="A87" s="5" t="n">
+        <f aca="false">A86+1</f>
+        <v>44300</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10"/>
+      <c r="A88" s="5" t="n">
+        <f aca="false">A87+1</f>
+        <v>44301</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -252,7 +252,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D89" activeCellId="0" sqref="D89"/>
+      <selection pane="bottomLeft" activeCell="E90" activeCellId="0" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2197,10 +2197,40 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10"/>
+      <c r="A89" s="5" t="n">
+        <f aca="false">A88+1</f>
+        <v>44302</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10"/>
+      <c r="A90" s="5" t="n">
+        <f aca="false">A89+1</f>
+        <v>44303</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -250,9 +250,9 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E90" activeCellId="0" sqref="E90"/>
+      <selection pane="bottomLeft" activeCell="E94" activeCellId="0" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2202,16 +2202,16 @@
         <v>44302</v>
       </c>
       <c r="B89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,26 +2220,71 @@
         <v>44303</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="n">
+        <f aca="false">A90+1</f>
+        <v>44304</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E90" s="1" t="n">
+      <c r="E91" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10"/>
-    </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="10"/>
+      <c r="A92" s="5" t="n">
+        <f aca="false">A91+1</f>
+        <v>44305</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10"/>
+      <c r="A93" s="5" t="n">
+        <f aca="false">A92+1</f>
+        <v>44306</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -252,7 +252,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E94" activeCellId="0" sqref="E94"/>
+      <selection pane="bottomLeft" activeCell="E96" activeCellId="0" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2287,10 +2287,40 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="10"/>
+      <c r="A94" s="5" t="n">
+        <f aca="false">A93+1</f>
+        <v>44307</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="10"/>
+      <c r="A95" s="5" t="n">
+        <f aca="false">A94+1</f>
+        <v>44308</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -252,7 +252,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E96" activeCellId="0" sqref="E96"/>
+      <selection pane="bottomLeft" activeCell="E91" activeCellId="0" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,10 +2323,40 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10"/>
+      <c r="A96" s="5" t="n">
+        <f aca="false">A95+1</f>
+        <v>44309</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10"/>
+      <c r="A97" s="5" t="n">
+        <f aca="false">A96+1</f>
+        <v>44310</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -252,7 +252,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E91" activeCellId="0" sqref="E91"/>
+      <selection pane="bottomLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2359,7 +2359,22 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10"/>
+      <c r="A98" s="5" t="n">
+        <f aca="false">A97+1</f>
+        <v>44311</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -252,7 +252,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
+      <selection pane="bottomLeft" activeCell="E93" activeCellId="0" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2292,7 +2292,7 @@
         <v>44307</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,7 +2364,7 @@
         <v>44311</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>0</v>
@@ -2373,14 +2373,44 @@
         <v>0</v>
       </c>
       <c r="E98" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5" t="n">
+        <f aca="false">A98+1</f>
+        <v>44312</v>
+      </c>
+      <c r="B99" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10"/>
+      <c r="C99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10"/>
+      <c r="A100" s="5" t="n">
+        <f aca="false">A99+1</f>
+        <v>44313</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -250,9 +250,9 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E93" activeCellId="0" sqref="E93"/>
+      <selection pane="bottomLeft" activeCell="E90" activeCellId="0" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2400,7 +2400,7 @@
         <v>44313</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>1</v>
@@ -2409,17 +2409,62 @@
         <v>0</v>
       </c>
       <c r="E100" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="n">
+        <f aca="false">A100+1</f>
+        <v>44314</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="n">
+        <f aca="false">A101+1</f>
+        <v>44315</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="10"/>
+      <c r="E102" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="10"/>
+      <c r="A103" s="5" t="n">
+        <f aca="false">A102+1</f>
+        <v>44316</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -252,7 +252,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E90" activeCellId="0" sqref="E90"/>
+      <selection pane="bottomLeft" activeCell="D106" activeCellId="0" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,16 +2467,76 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="10"/>
+      <c r="A104" s="5" t="n">
+        <f aca="false">A103+1</f>
+        <v>44317</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="10"/>
+      <c r="A105" s="5" t="n">
+        <f aca="false">A104+1</f>
+        <v>44318</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="10"/>
+      <c r="A106" s="5" t="n">
+        <f aca="false">A105+1</f>
+        <v>44319</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="10"/>
+      <c r="A107" s="5" t="n">
+        <f aca="false">A106+1</f>
+        <v>44320</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -252,7 +252,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D106" activeCellId="0" sqref="D106"/>
+      <selection pane="bottomLeft" activeCell="E107" activeCellId="0" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2539,19 +2539,94 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="10"/>
+      <c r="A108" s="5" t="n">
+        <f aca="false">A107+1</f>
+        <v>44321</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="10"/>
+      <c r="A109" s="5" t="n">
+        <f aca="false">A108+1</f>
+        <v>44322</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="10"/>
+      <c r="A110" s="5" t="n">
+        <f aca="false">A109+1</f>
+        <v>44323</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10"/>
+      <c r="A111" s="5" t="n">
+        <f aca="false">A110+1</f>
+        <v>44324</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10"/>
+      <c r="A112" s="5" t="n">
+        <f aca="false">A111+1</f>
+        <v>44325</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -250,9 +250,9 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E107" activeCellId="0" sqref="E107"/>
+      <selection pane="bottomLeft" activeCell="B113" activeCellId="0" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2629,28 +2629,148 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10"/>
+      <c r="A113" s="5" t="n">
+        <f aca="false">A112+1</f>
+        <v>44326</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="10"/>
+      <c r="A114" s="5" t="n">
+        <f aca="false">A113+1</f>
+        <v>44327</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10"/>
+      <c r="A115" s="5" t="n">
+        <f aca="false">A114+1</f>
+        <v>44328</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="10"/>
+      <c r="A116" s="5" t="n">
+        <f aca="false">A115+1</f>
+        <v>44329</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="10"/>
+      <c r="A117" s="5" t="n">
+        <f aca="false">A116+1</f>
+        <v>44330</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10"/>
+      <c r="A118" s="5" t="n">
+        <f aca="false">A117+1</f>
+        <v>44331</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="10"/>
+      <c r="A119" s="5" t="n">
+        <f aca="false">A118+1</f>
+        <v>44332</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10"/>
+      <c r="A120" s="5" t="n">
+        <f aca="false">A119+1</f>
+        <v>44333</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -252,7 +252,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B113" activeCellId="0" sqref="B113"/>
+      <selection pane="bottomLeft" activeCell="B126" activeCellId="0" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2773,37 +2773,193 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10"/>
+      <c r="A121" s="5" t="n">
+        <f aca="false">A120+1</f>
+        <v>44334</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10"/>
+      <c r="A122" s="5" t="n">
+        <f aca="false">A121+1</f>
+        <v>44335</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="10"/>
+      <c r="A123" s="5" t="n">
+        <f aca="false">A122+1</f>
+        <v>44336</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="10"/>
+      <c r="A124" s="5" t="n">
+        <f aca="false">A123+1</f>
+        <v>44337</v>
+      </c>
+      <c r="E124" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="10"/>
+      <c r="A125" s="5" t="n">
+        <f aca="false">A124+1</f>
+        <v>44338</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10"/>
+      <c r="A126" s="5" t="n">
+        <f aca="false">A125+1</f>
+        <v>44339</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10"/>
+      <c r="A127" s="5" t="n">
+        <f aca="false">A126+1</f>
+        <v>44340</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="10"/>
+      <c r="A128" s="5" t="n">
+        <f aca="false">A127+1</f>
+        <v>44341</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="10"/>
+      <c r="A129" s="5" t="n">
+        <f aca="false">A128+1</f>
+        <v>44342</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="10"/>
+      <c r="A130" s="5" t="n">
+        <f aca="false">A129+1</f>
+        <v>44343</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="10"/>
+      <c r="A131" s="5" t="n">
+        <f aca="false">A130+1</f>
+        <v>44344</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -250,9 +250,9 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B126" activeCellId="0" sqref="B126"/>
+      <selection pane="bottomLeft" activeCell="D140" activeCellId="0" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2962,28 +2962,148 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="10"/>
+      <c r="A132" s="5" t="n">
+        <f aca="false">A131+1</f>
+        <v>44345</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="10"/>
+      <c r="A133" s="5" t="n">
+        <f aca="false">A132+1</f>
+        <v>44346</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="10"/>
+      <c r="A134" s="5" t="n">
+        <f aca="false">A133+1</f>
+        <v>44347</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="10"/>
+      <c r="A135" s="5" t="n">
+        <f aca="false">A134+1</f>
+        <v>44348</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="10"/>
+      <c r="A136" s="5" t="n">
+        <f aca="false">A135+1</f>
+        <v>44349</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="10"/>
+      <c r="A137" s="5" t="n">
+        <f aca="false">A136+1</f>
+        <v>44350</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="10"/>
+      <c r="A138" s="5" t="n">
+        <f aca="false">A137+1</f>
+        <v>44351</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="10"/>
+      <c r="A139" s="5" t="n">
+        <f aca="false">A138+1</f>
+        <v>44352</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -252,7 +252,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D140" activeCellId="0" sqref="D140"/>
+      <selection pane="bottomLeft" activeCell="E141" activeCellId="0" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3106,7 +3106,22 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="10"/>
+      <c r="A140" s="5" t="n">
+        <f aca="false">A139+1</f>
+        <v>44353</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -252,7 +252,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E141" activeCellId="0" sqref="E141"/>
+      <selection pane="bottomLeft" activeCell="D147" activeCellId="0" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3111,7 +3111,7 @@
         <v>44353</v>
       </c>
       <c r="B140" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>0</v>
@@ -3120,29 +3120,134 @@
         <v>0</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="10"/>
+      <c r="A141" s="5" t="n">
+        <f aca="false">A140+1</f>
+        <v>44354</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="10"/>
+      <c r="A142" s="5" t="n">
+        <f aca="false">A141+1</f>
+        <v>44355</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="10"/>
+      <c r="A143" s="5" t="n">
+        <f aca="false">A142+1</f>
+        <v>44356</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10"/>
+      <c r="A144" s="5" t="n">
+        <f aca="false">A143+1</f>
+        <v>44357</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10"/>
+      <c r="A145" s="5" t="n">
+        <f aca="false">A144+1</f>
+        <v>44358</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10"/>
+      <c r="A146" s="5" t="n">
+        <f aca="false">A145+1</f>
+        <v>44359</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10"/>
+      <c r="A147" s="5" t="n">
+        <f aca="false">A146+1</f>
+        <v>44360</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -250,9 +250,9 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D147" activeCellId="0" sqref="D147"/>
+      <selection pane="bottomLeft" activeCell="E158" activeCellId="0" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3250,40 +3250,220 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="10"/>
+      <c r="A148" s="5" t="n">
+        <f aca="false">A147+1</f>
+        <v>44361</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="10"/>
+      <c r="A149" s="5" t="n">
+        <f aca="false">A148+1</f>
+        <v>44362</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="10"/>
+      <c r="A150" s="5" t="n">
+        <f aca="false">A149+1</f>
+        <v>44363</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="10"/>
+      <c r="A151" s="5" t="n">
+        <f aca="false">A150+1</f>
+        <v>44364</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="10"/>
+      <c r="A152" s="5" t="n">
+        <f aca="false">A151+1</f>
+        <v>44365</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="10"/>
+      <c r="A153" s="5" t="n">
+        <f aca="false">A152+1</f>
+        <v>44366</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="10"/>
+      <c r="A154" s="5" t="n">
+        <f aca="false">A153+1</f>
+        <v>44367</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="10"/>
+      <c r="A155" s="5" t="n">
+        <f aca="false">A154+1</f>
+        <v>44368</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="10"/>
+      <c r="A156" s="5" t="n">
+        <f aca="false">A155+1</f>
+        <v>44369</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="10"/>
+      <c r="A157" s="5" t="n">
+        <f aca="false">A156+1</f>
+        <v>44370</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="10"/>
+      <c r="A158" s="5" t="n">
+        <f aca="false">A157+1</f>
+        <v>44371</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="10"/>
+      <c r="A159" s="5" t="n">
+        <f aca="false">A158+1</f>
+        <v>44372</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="10"/>

--- a/data/Israel/deaths by vaccination status.xlsx
+++ b/data/Israel/deaths by vaccination status.xlsx
@@ -77,7 +77,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,7 +87,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFDBB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -125,7 +131,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -163,6 +169,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -220,7 +230,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -250,9 +260,9 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E158" activeCellId="0" sqref="E158"/>
+      <selection pane="bottomLeft" activeCell="G130" activeCellId="0" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2831,6 +2841,9 @@
         <f aca="false">A123+1</f>
         <v>44337</v>
       </c>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
       <c r="E124" s="1" t="n">
         <v>2</v>
       </c>
@@ -3466,2527 +3479,2527 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="10"/>
+      <c r="A160" s="11"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="10"/>
+      <c r="A161" s="11"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="10"/>
+      <c r="A162" s="11"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="10"/>
+      <c r="A163" s="11"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="10"/>
+      <c r="A164" s="11"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="10"/>
+      <c r="A165" s="11"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="10"/>
+      <c r="A166" s="11"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="10"/>
+      <c r="A167" s="11"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="10"/>
+      <c r="A168" s="11"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="10"/>
+      <c r="A169" s="11"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="10"/>
+      <c r="A170" s="11"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="10"/>
+      <c r="A171" s="11"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="10"/>
+      <c r="A172" s="11"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="10"/>
+      <c r="A173" s="11"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="10"/>
+      <c r="A174" s="11"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="10"/>
+      <c r="A175" s="11"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="10"/>
+      <c r="A176" s="11"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="10"/>
+      <c r="A177" s="11"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="10"/>
+      <c r="A178" s="11"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="10"/>
+      <c r="A179" s="11"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="10"/>
+      <c r="A180" s="11"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="10"/>
+      <c r="A181" s="11"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="10"/>
+      <c r="A182" s="11"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="10"/>
+      <c r="A183" s="11"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="10"/>
+      <c r="A184" s="11"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="10"/>
+      <c r="A185" s="11"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="10"/>
+      <c r="A186" s="11"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="10"/>
+      <c r="A187" s="11"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="10"/>
+      <c r="A188" s="11"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="10"/>
+      <c r="A189" s="11"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="10"/>
+      <c r="A190" s="11"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="10"/>
+      <c r="A191" s="11"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="10"/>
+      <c r="A192" s="11"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="10"/>
+      <c r="A193" s="11"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="10"/>
+      <c r="A194" s="11"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="10"/>
+      <c r="A195" s="11"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="10"/>
+      <c r="A196" s="11"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="10"/>
+      <c r="A197" s="11"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="10"/>
+      <c r="A198" s="11"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="10"/>
+      <c r="A199" s="11"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="10"/>
+      <c r="A200" s="11"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="10"/>
+      <c r="A201" s="11"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="10"/>
+      <c r="A202" s="11"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="10"/>
+      <c r="A203" s="11"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="10"/>
+      <c r="A204" s="11"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="10"/>
+      <c r="A205" s="11"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="10"/>
+      <c r="A206" s="11"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="10"/>
+      <c r="A207" s="11"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="10"/>
+      <c r="A208" s="11"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="10"/>
+      <c r="A209" s="11"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="10"/>
+      <c r="A210" s="11"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="10"/>
+      <c r="A211" s="11"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="10"/>
+      <c r="A212" s="11"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="10"/>
+      <c r="A213" s="11"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="10"/>
+      <c r="A214" s="11"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="10"/>
+      <c r="A215" s="11"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="10"/>
+      <c r="A216" s="11"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="10"/>
+      <c r="A217" s="11"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="10"/>
+      <c r="A218" s="11"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="10"/>
+      <c r="A219" s="11"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="10"/>
+      <c r="A220" s="11"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="10"/>
+      <c r="A221" s="11"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="10"/>
+      <c r="A222" s="11"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="10"/>
+      <c r="A223" s="11"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="10"/>
+      <c r="A224" s="11"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="10"/>
+      <c r="A225" s="11"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="10"/>
+      <c r="A226" s="11"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="10"/>
+      <c r="A227" s="11"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="10"/>
+      <c r="A228" s="11"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="10"/>
+      <c r="A229" s="11"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="10"/>
+      <c r="A230" s="11"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="10"/>
+      <c r="A231" s="11"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="10"/>
+      <c r="A232" s="11"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="10"/>
+      <c r="A233" s="11"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="10"/>
+      <c r="A234" s="11"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="10"/>
+      <c r="A235" s="11"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="10"/>
+      <c r="A236" s="11"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="10"/>
+      <c r="A237" s="11"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="10"/>
+      <c r="A238" s="11"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="10"/>
+      <c r="A239" s="11"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="10"/>
+      <c r="A240" s="11"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="10"/>
+      <c r="A241" s="11"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="10"/>
+      <c r="A242" s="11"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="10"/>
+      <c r="A243" s="11"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="10"/>
+      <c r="A244" s="11"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="10"/>
+      <c r="A245" s="11"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="10"/>
+      <c r="A246" s="11"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="10"/>
+      <c r="A247" s="11"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="10"/>
+      <c r="A248" s="11"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="10"/>
+      <c r="A249" s="11"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="10"/>
+      <c r="A250" s="11"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="10"/>
+      <c r="A251" s="11"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="10"/>
+      <c r="A252" s="11"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="10"/>
+      <c r="A253" s="11"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="10"/>
+      <c r="A254" s="11"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="10"/>
+      <c r="A255" s="11"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="10"/>
+      <c r="A256" s="11"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="10"/>
+      <c r="A257" s="11"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="10"/>
+      <c r="A258" s="11"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="10"/>
+      <c r="A259" s="11"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="10"/>
+      <c r="A260" s="11"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="10"/>
+      <c r="A261" s="11"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="10"/>
+      <c r="A262" s="11"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="10"/>
+      <c r="A263" s="11"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="10"/>
+      <c r="A264" s="11"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="10"/>
+      <c r="A265" s="11"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="10"/>
+      <c r="A266" s="11"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="10"/>
+      <c r="A267" s="11"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="10"/>
+      <c r="A268" s="11"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="10"/>
+      <c r="A269" s="11"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="10"/>
+      <c r="A270" s="11"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="10"/>
+      <c r="A271" s="11"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="10"/>
+      <c r="A272" s="11"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="10"/>
+      <c r="A273" s="11"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="10"/>
+      <c r="A274" s="11"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="10"/>
+      <c r="A275" s="11"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="10"/>
+      <c r="A276" s="11"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="10"/>
+      <c r="A277" s="11"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="10"/>
+      <c r="A278" s="11"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="10"/>
+      <c r="A279" s="11"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="10"/>
+      <c r="A280" s="11"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="10"/>
+      <c r="A281" s="11"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="10"/>
+      <c r="A282" s="11"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="10"/>
+      <c r="A283" s="11"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="10"/>
+      <c r="A284" s="11"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="10"/>
+      <c r="A285" s="11"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="10"/>
+      <c r="A286" s="11"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="10"/>
+      <c r="A287" s="11"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="10"/>
+      <c r="A288" s="11"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="10"/>
+      <c r="A289" s="11"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="10"/>
+      <c r="A290" s="11"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="10"/>
+      <c r="A291" s="11"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="10"/>
+      <c r="A292" s="11"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="10"/>
+      <c r="A293" s="11"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="10"/>
+      <c r="A294" s="11"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="10"/>
+      <c r="A295" s="11"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="10"/>
+      <c r="A296" s="11"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="10"/>
+      <c r="A297" s="11"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="10"/>
+      <c r="A298" s="11"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="10"/>
+      <c r="A299" s="11"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="10"/>
+      <c r="A300" s="11"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="10"/>
+      <c r="A301" s="11"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="10"/>
+      <c r="A302" s="11"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="10"/>
+      <c r="A303" s="11"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="10"/>
+      <c r="A304" s="11"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="10"/>
+      <c r="A305" s="11"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="10"/>
+      <c r="A306" s="11"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="10"/>
+      <c r="A307" s="11"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="10"/>
+      <c r="A308" s="11"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="10"/>
+      <c r="A309" s="11"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="10"/>
+      <c r="A310" s="11"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="10"/>
+      <c r="A311" s="11"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="10"/>
+      <c r="A312" s="11"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="10"/>
+      <c r="A313" s="11"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="10"/>
+      <c r="A314" s="11"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="10"/>
+      <c r="A315" s="11"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="10"/>
+      <c r="A316" s="11"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="10"/>
+      <c r="A317" s="11"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="10"/>
+      <c r="A318" s="11"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="10"/>
+      <c r="A319" s="11"/>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="10"/>
+      <c r="A320" s="11"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="10"/>
+      <c r="A321" s="11"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="10"/>
+      <c r="A322" s="11"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="10"/>
+      <c r="A323" s="11"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="10"/>
+      <c r="A324" s="11"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="10"/>
+      <c r="A325" s="11"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="10"/>
+      <c r="A326" s="11"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="10"/>
+      <c r="A327" s="11"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="10"/>
+      <c r="A328" s="11"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="10"/>
+      <c r="A329" s="11"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="10"/>
+      <c r="A330" s="11"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="10"/>
+      <c r="A331" s="11"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="10"/>
+      <c r="A332" s="11"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="10"/>
+      <c r="A333" s="11"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="10"/>
+      <c r="A334" s="11"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="10"/>
+      <c r="A335" s="11"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="10"/>
+      <c r="A336" s="11"/>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="10"/>
+      <c r="A337" s="11"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="10"/>
+      <c r="A338" s="11"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="10"/>
+      <c r="A339" s="11"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="10"/>
+      <c r="A340" s="11"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="10"/>
+      <c r="A341" s="11"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="10"/>
+      <c r="A342" s="11"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="10"/>
+      <c r="A343" s="11"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="10"/>
+      <c r="A344" s="11"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="10"/>
+      <c r="A345" s="11"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="10"/>
+      <c r="A346" s="11"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="10"/>
+      <c r="A347" s="11"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="10"/>
+      <c r="A348" s="11"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="10"/>
+      <c r="A349" s="11"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="10"/>
+      <c r="A350" s="11"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="10"/>
+      <c r="A351" s="11"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="10"/>
+      <c r="A352" s="11"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="10"/>
+      <c r="A353" s="11"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="10"/>
+      <c r="A354" s="11"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="10"/>
+      <c r="A355" s="11"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="10"/>
+      <c r="A356" s="11"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="10"/>
+      <c r="A357" s="11"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="10"/>
+      <c r="A358" s="11"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="10"/>
+      <c r="A359" s="11"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="10"/>
+      <c r="A360" s="11"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="10"/>
+      <c r="A361" s="11"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="10"/>
+      <c r="A362" s="11"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="10"/>
+      <c r="A363" s="11"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="10"/>
+      <c r="A364" s="11"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="10"/>
+      <c r="A365" s="11"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="10"/>
+      <c r="A366" s="11"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="10"/>
+      <c r="A367" s="11"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="10"/>
+      <c r="A368" s="11"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="10"/>
+      <c r="A369" s="11"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="10"/>
+      <c r="A370" s="11"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="10"/>
+      <c r="A371" s="11"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="10"/>
+      <c r="A372" s="11"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="10"/>
+      <c r="A373" s="11"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="10"/>
+      <c r="A374" s="11"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="10"/>
+      <c r="A375" s="11"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="10"/>
+      <c r="A376" s="11"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="10"/>
+      <c r="A377" s="11"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="10"/>
+      <c r="A378" s="11"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="10"/>
+      <c r="A379" s="11"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="10"/>
+      <c r="A380" s="11"/>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="10"/>
+      <c r="A381" s="11"/>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="10"/>
+      <c r="A382" s="11"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="10"/>
+      <c r="A383" s="11"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="10"/>
+      <c r="A384" s="11"/>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="10"/>
+      <c r="A385" s="11"/>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="10"/>
+      <c r="A386" s="11"/>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="10"/>
+      <c r="A387" s="11"/>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="10"/>
+      <c r="A388" s="11"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="10"/>
+      <c r="A389" s="11"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="10"/>
+      <c r="A390" s="11"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="10"/>
+      <c r="A391" s="11"/>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="10"/>
+      <c r="A392" s="11"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="10"/>
+      <c r="A393" s="11"/>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="10"/>
+      <c r="A394" s="11"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="10"/>
+      <c r="A395" s="11"/>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="10"/>
+      <c r="A396" s="11"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="10"/>
+      <c r="A397" s="11"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="10"/>
+      <c r="A398" s="11"/>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="10"/>
+      <c r="A399" s="11"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="10"/>
+      <c r="A400" s="11"/>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="10"/>
+      <c r="A401" s="11"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="10"/>
+      <c r="A402" s="11"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="10"/>
+      <c r="A403" s="11"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="10"/>
+      <c r="A404" s="11"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="10"/>
+      <c r="A405" s="11"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="10"/>
+      <c r="A406" s="11"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="10"/>
+      <c r="A407" s="11"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="10"/>
+      <c r="A408" s="11"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="10"/>
+      <c r="A409" s="11"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="10"/>
+      <c r="A410" s="11"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="10"/>
+      <c r="A411" s="11"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="10"/>
+      <c r="A412" s="11"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="10"/>
+      <c r="A413" s="11"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="10"/>
+      <c r="A414" s="11"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="10"/>
+      <c r="A415" s="11"/>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="10"/>
+      <c r="A416" s="11"/>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="10"/>
+      <c r="A417" s="11"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="10"/>
+      <c r="A418" s="11"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="10"/>
+      <c r="A419" s="11"/>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="10"/>
+      <c r="A420" s="11"/>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="10"/>
+      <c r="A421" s="11"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="10"/>
+      <c r="A422" s="11"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="10"/>
+      <c r="A423" s="11"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="10"/>
+      <c r="A424" s="11"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="10"/>
+      <c r="A425" s="11"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="10"/>
+      <c r="A426" s="11"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="10"/>
+      <c r="A427" s="11"/>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="10"/>
+      <c r="A428" s="11"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="10"/>
+      <c r="A429" s="11"/>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="10"/>
+      <c r="A430" s="11"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="10"/>
+      <c r="A431" s="11"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="10"/>
+      <c r="A432" s="11"/>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="10"/>
+      <c r="A433" s="11"/>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="10"/>
+      <c r="A434" s="11"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="10"/>
+      <c r="A435" s="11"/>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="10"/>
+      <c r="A436" s="11"/>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="10"/>
+      <c r="A437" s="11"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="10"/>
+      <c r="A438" s="11"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="10"/>
+      <c r="A439" s="11"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="10"/>
+      <c r="A440" s="11"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="10"/>
+      <c r="A441" s="11"/>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="10"/>
+      <c r="A442" s="11"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="10"/>
+      <c r="A443" s="11"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="10"/>
+      <c r="A444" s="11"/>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="10"/>
+      <c r="A445" s="11"/>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="10"/>
+      <c r="A446" s="11"/>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="10"/>
+      <c r="A447" s="11"/>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="10"/>
+      <c r="A448" s="11"/>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="10"/>
+      <c r="A449" s="11"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="10"/>
+      <c r="A450" s="11"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="10"/>
+      <c r="A451" s="11"/>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="10"/>
+      <c r="A452" s="11"/>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="10"/>
+      <c r="A453" s="11"/>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="10"/>
+      <c r="A454" s="11"/>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="10"/>
+      <c r="A455" s="11"/>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="10"/>
+      <c r="A456" s="11"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="10"/>
+      <c r="A457" s="11"/>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="10"/>
+      <c r="A458" s="11"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="10"/>
+      <c r="A459" s="11"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="10"/>
+      <c r="A460" s="11"/>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="10"/>
+      <c r="A461" s="11"/>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="10"/>
+      <c r="A462" s="11"/>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="10"/>
+      <c r="A463" s="11"/>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="10"/>
+      <c r="A464" s="11"/>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="10"/>
+      <c r="A465" s="11"/>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="10"/>
+      <c r="A466" s="11"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="10"/>
+      <c r="A467" s="11"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="10"/>
+      <c r="A468" s="11"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="10"/>
+      <c r="A469" s="11"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="10"/>
+      <c r="A470" s="11"/>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="10"/>
+      <c r="A471" s="11"/>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="10"/>
+      <c r="A472" s="11"/>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="10"/>
+      <c r="A473" s="11"/>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="10"/>
+      <c r="A474" s="11"/>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="10"/>
+      <c r="A475" s="11"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="10"/>
+      <c r="A476" s="11"/>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="10"/>
+      <c r="A477" s="11"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="10"/>
+      <c r="A478" s="11"/>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="10"/>
+      <c r="A479" s="11"/>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="10"/>
+      <c r="A480" s="11"/>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="10"/>
+      <c r="A481" s="11"/>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="10"/>
+      <c r="A482" s="11"/>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="10"/>
+      <c r="A483" s="11"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="10"/>
+      <c r="A484" s="11"/>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="10"/>
+      <c r="A485" s="11"/>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="10"/>
+      <c r="A486" s="11"/>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="10"/>
+      <c r="A487" s="11"/>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="10"/>
+      <c r="A488" s="11"/>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="10"/>
+      <c r="A489" s="11"/>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="10"/>
+      <c r="A490" s="11"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="10"/>
+      <c r="A491" s="11"/>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="10"/>
+      <c r="A492" s="11"/>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="10"/>
+      <c r="A493" s="11"/>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="10"/>
+      <c r="A494" s="11"/>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="10"/>
+      <c r="A495" s="11"/>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="10"/>
+      <c r="A496" s="11"/>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="10"/>
+      <c r="A497" s="11"/>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="10"/>
+      <c r="A498" s="11"/>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="10"/>
+      <c r="A499" s="11"/>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="10"/>
+      <c r="A500" s="11"/>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="10"/>
+      <c r="A501" s="11"/>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="10"/>
+      <c r="A502" s="11"/>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="10"/>
+      <c r="A503" s="11"/>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="10"/>
+      <c r="A504" s="11"/>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="10"/>
+      <c r="A505" s="11"/>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="10"/>
+      <c r="A506" s="11"/>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="10"/>
+      <c r="A507" s="11"/>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="10"/>
+      <c r="A508" s="11"/>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="10"/>
+      <c r="A509" s="11"/>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="10"/>
+      <c r="A510" s="11"/>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="10"/>
+      <c r="A511" s="11"/>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="10"/>
+      <c r="A512" s="11"/>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="10"/>
+      <c r="A513" s="11"/>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="10"/>
+      <c r="A514" s="11"/>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="10"/>
+      <c r="A515" s="11"/>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="10"/>
+      <c r="A516" s="11"/>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="10"/>
+      <c r="A517" s="11"/>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="10"/>
+      <c r="A518" s="11"/>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="10"/>
+      <c r="A519" s="11"/>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="10"/>
+      <c r="A520" s="11"/>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="10"/>
+      <c r="A521" s="11"/>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="10"/>
+      <c r="A522" s="11"/>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="10"/>
+      <c r="A523" s="11"/>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="10"/>
+      <c r="A524" s="11"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="10"/>
+      <c r="A525" s="11"/>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="10"/>
+      <c r="A526" s="11"/>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="10"/>
+      <c r="A527" s="11"/>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="10"/>
+      <c r="A528" s="11"/>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="10"/>
+      <c r="A529" s="11"/>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="10"/>
+      <c r="A530" s="11"/>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="10"/>
+      <c r="A531" s="11"/>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="10"/>
+      <c r="A532" s="11"/>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="10"/>
+      <c r="A533" s="11"/>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="10"/>
+      <c r="A534" s="11"/>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="10"/>
+      <c r="A535" s="11"/>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="10"/>
+      <c r="A536" s="11"/>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="10"/>
+      <c r="A537" s="11"/>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="10"/>
+      <c r="A538" s="11"/>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="10"/>
+      <c r="A539" s="11"/>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="10"/>
+      <c r="A540" s="11"/>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="10"/>
+      <c r="A541" s="11"/>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="10"/>
+      <c r="A542" s="11"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="10"/>
+      <c r="A543" s="11"/>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="10"/>
+      <c r="A544" s="11"/>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="10"/>
+      <c r="A545" s="11"/>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="10"/>
+      <c r="A546" s="11"/>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="10"/>
+      <c r="A547" s="11"/>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="10"/>
+      <c r="A548" s="11"/>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="10"/>
+      <c r="A549" s="11"/>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="10"/>
+      <c r="A550" s="11"/>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="10"/>
+      <c r="A551" s="11"/>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="10"/>
+      <c r="A552" s="11"/>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="10"/>
+      <c r="A553" s="11"/>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="10"/>
+      <c r="A554" s="11"/>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="10"/>
+      <c r="A555" s="11"/>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="10"/>
+      <c r="A556" s="11"/>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="10"/>
+      <c r="A557" s="11"/>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="10"/>
+      <c r="A558" s="11"/>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="10"/>
+      <c r="A559" s="11"/>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="10"/>
+      <c r="A560" s="11"/>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="10"/>
+      <c r="A561" s="11"/>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="10"/>
+      <c r="A562" s="11"/>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="10"/>
+      <c r="A563" s="11"/>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="10"/>
+      <c r="A564" s="11"/>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="10"/>
+      <c r="A565" s="11"/>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="10"/>
+      <c r="A566" s="11"/>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="10"/>
+      <c r="A567" s="11"/>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="10"/>
+      <c r="A568" s="11"/>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="10"/>
+      <c r="A569" s="11"/>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="10"/>
+      <c r="A570" s="11"/>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="10"/>
+      <c r="A571" s="11"/>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="10"/>
+      <c r="A572" s="11"/>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="10"/>
+      <c r="A573" s="11"/>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="10"/>
+      <c r="A574" s="11"/>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="10"/>
+      <c r="A575" s="11"/>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="10"/>
+      <c r="A576" s="11"/>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="10"/>
+      <c r="A577" s="11"/>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="10"/>
+      <c r="A578" s="11"/>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="10"/>
+      <c r="A579" s="11"/>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="10"/>
+      <c r="A580" s="11"/>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="10"/>
+      <c r="A581" s="11"/>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="10"/>
+      <c r="A582" s="11"/>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="10"/>
+      <c r="A583" s="11"/>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="10"/>
+      <c r="A584" s="11"/>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="10"/>
+      <c r="A585" s="11"/>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="10"/>
+      <c r="A586" s="11"/>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="10"/>
+      <c r="A587" s="11"/>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="10"/>
+      <c r="A588" s="11"/>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="10"/>
+      <c r="A589" s="11"/>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="10"/>
+      <c r="A590" s="11"/>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="10"/>
+      <c r="A591" s="11"/>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="10"/>
+      <c r="A592" s="11"/>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="10"/>
+      <c r="A593" s="11"/>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="10"/>
+      <c r="A594" s="11"/>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="10"/>
+      <c r="A595" s="11"/>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="10"/>
+      <c r="A596" s="11"/>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="10"/>
+      <c r="A597" s="11"/>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="10"/>
+      <c r="A598" s="11"/>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="10"/>
+      <c r="A599" s="11"/>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="10"/>
+      <c r="A600" s="11"/>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="10"/>
+      <c r="A601" s="11"/>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="10"/>
+      <c r="A602" s="11"/>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="10"/>
+      <c r="A603" s="11"/>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="10"/>
+      <c r="A604" s="11"/>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="10"/>
+      <c r="A605" s="11"/>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="10"/>
+      <c r="A606" s="11"/>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="10"/>
+      <c r="A607" s="11"/>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="10"/>
+      <c r="A608" s="11"/>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="10"/>
+      <c r="A609" s="11"/>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="10"/>
+      <c r="A610" s="11"/>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="10"/>
+      <c r="A611" s="11"/>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="10"/>
+      <c r="A612" s="11"/>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="10"/>
+      <c r="A613" s="11"/>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="10"/>
+      <c r="A614" s="11"/>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="10"/>
+      <c r="A615" s="11"/>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="10"/>
+      <c r="A616" s="11"/>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="10"/>
+      <c r="A617" s="11"/>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="10"/>
+      <c r="A618" s="11"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="10"/>
+      <c r="A619" s="11"/>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="10"/>
+      <c r="A620" s="11"/>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="10"/>
+      <c r="A621" s="11"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="10"/>
+      <c r="A622" s="11"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="10"/>
+      <c r="A623" s="11"/>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="10"/>
+      <c r="A624" s="11"/>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="10"/>
+      <c r="A625" s="11"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="10"/>
+      <c r="A626" s="11"/>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="10"/>
+      <c r="A627" s="11"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="10"/>
+      <c r="A628" s="11"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="10"/>
+      <c r="A629" s="11"/>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="10"/>
+      <c r="A630" s="11"/>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="10"/>
+      <c r="A631" s="11"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="10"/>
+      <c r="A632" s="11"/>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="10"/>
+      <c r="A633" s="11"/>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="10"/>
+      <c r="A634" s="11"/>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="10"/>
+      <c r="A635" s="11"/>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="10"/>
+      <c r="A636" s="11"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="10"/>
+      <c r="A637" s="11"/>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="10"/>
+      <c r="A638" s="11"/>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="10"/>
+      <c r="A639" s="11"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="10"/>
+      <c r="A640" s="11"/>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="10"/>
+      <c r="A641" s="11"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="10"/>
+      <c r="A642" s="11"/>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="10"/>
+      <c r="A643" s="11"/>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="10"/>
+      <c r="A644" s="11"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="10"/>
+      <c r="A645" s="11"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="10"/>
+      <c r="A646" s="11"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="10"/>
+      <c r="A647" s="11"/>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="10"/>
+      <c r="A648" s="11"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="10"/>
+      <c r="A649" s="11"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="10"/>
+      <c r="A650" s="11"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="10"/>
+      <c r="A651" s="11"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="10"/>
+      <c r="A652" s="11"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="10"/>
+      <c r="A653" s="11"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="10"/>
+      <c r="A654" s="11"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="10"/>
+      <c r="A655" s="11"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="10"/>
+      <c r="A656" s="11"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="10"/>
+      <c r="A657" s="11"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="10"/>
+      <c r="A658" s="11"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="10"/>
+      <c r="A659" s="11"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="10"/>
+      <c r="A660" s="11"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="10"/>
+      <c r="A661" s="11"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="10"/>
+      <c r="A662" s="11"/>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="10"/>
+      <c r="A663" s="11"/>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="10"/>
+      <c r="A664" s="11"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="10"/>
+      <c r="A665" s="11"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="10"/>
+      <c r="A666" s="11"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="10"/>
+      <c r="A667" s="11"/>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="10"/>
+      <c r="A668" s="11"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="10"/>
+      <c r="A669" s="11"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="10"/>
+      <c r="A670" s="11"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="10"/>
+      <c r="A671" s="11"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="10"/>
+      <c r="A672" s="11"/>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="10"/>
+      <c r="A673" s="11"/>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="10"/>
+      <c r="A674" s="11"/>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="10"/>
+      <c r="A675" s="11"/>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="10"/>
+      <c r="A676" s="11"/>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="10"/>
+      <c r="A677" s="11"/>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="10"/>
+      <c r="A678" s="11"/>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="10"/>
+      <c r="A679" s="11"/>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="10"/>
+      <c r="A680" s="11"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="10"/>
+      <c r="A681" s="11"/>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="10"/>
+      <c r="A682" s="11"/>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="10"/>
+      <c r="A683" s="11"/>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="10"/>
+      <c r="A684" s="11"/>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="10"/>
+      <c r="A685" s="11"/>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="10"/>
+      <c r="A686" s="11"/>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="10"/>
+      <c r="A687" s="11"/>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="10"/>
+      <c r="A688" s="11"/>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="10"/>
+      <c r="A689" s="11"/>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="10"/>
+      <c r="A690" s="11"/>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="10"/>
+      <c r="A691" s="11"/>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="10"/>
+      <c r="A692" s="11"/>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="10"/>
+      <c r="A693" s="11"/>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="10"/>
+      <c r="A694" s="11"/>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="10"/>
+      <c r="A695" s="11"/>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="10"/>
+      <c r="A696" s="11"/>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="10"/>
+      <c r="A697" s="11"/>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="10"/>
+      <c r="A698" s="11"/>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="10"/>
+      <c r="A699" s="11"/>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="10"/>
+      <c r="A700" s="11"/>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="10"/>
+      <c r="A701" s="11"/>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="10"/>
+      <c r="A702" s="11"/>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="10"/>
+      <c r="A703" s="11"/>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="10"/>
+      <c r="A704" s="11"/>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="10"/>
+      <c r="A705" s="11"/>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="10"/>
+      <c r="A706" s="11"/>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="10"/>
+      <c r="A707" s="11"/>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="10"/>
+      <c r="A708" s="11"/>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="10"/>
+      <c r="A709" s="11"/>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="10"/>
+      <c r="A710" s="11"/>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="10"/>
+      <c r="A711" s="11"/>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="10"/>
+      <c r="A712" s="11"/>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="10"/>
+      <c r="A713" s="11"/>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="10"/>
+      <c r="A714" s="11"/>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="10"/>
+      <c r="A715" s="11"/>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="10"/>
+      <c r="A716" s="11"/>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="10"/>
+      <c r="A717" s="11"/>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="10"/>
+      <c r="A718" s="11"/>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="10"/>
+      <c r="A719" s="11"/>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="10"/>
+      <c r="A720" s="11"/>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="10"/>
+      <c r="A721" s="11"/>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="10"/>
+      <c r="A722" s="11"/>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="10"/>
+      <c r="A723" s="11"/>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="10"/>
+      <c r="A724" s="11"/>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="10"/>
+      <c r="A725" s="11"/>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="10"/>
+      <c r="A726" s="11"/>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="10"/>
+      <c r="A727" s="11"/>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="10"/>
+      <c r="A728" s="11"/>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="10"/>
+      <c r="A729" s="11"/>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="10"/>
+      <c r="A730" s="11"/>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="10"/>
+      <c r="A731" s="11"/>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="10"/>
+      <c r="A732" s="11"/>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="10"/>
+      <c r="A733" s="11"/>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="10"/>
+      <c r="A734" s="11"/>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="10"/>
+      <c r="A735" s="11"/>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="10"/>
+      <c r="A736" s="11"/>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="10"/>
+      <c r="A737" s="11"/>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="10"/>
+      <c r="A738" s="11"/>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="10"/>
+      <c r="A739" s="11"/>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="10"/>
+      <c r="A740" s="11"/>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="10"/>
+      <c r="A741" s="11"/>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="10"/>
+      <c r="A742" s="11"/>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="10"/>
+      <c r="A743" s="11"/>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="10"/>
+      <c r="A744" s="11"/>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="10"/>
+      <c r="A745" s="11"/>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="10"/>
+      <c r="A746" s="11"/>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="10"/>
+      <c r="A747" s="11"/>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="10"/>
+      <c r="A748" s="11"/>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="10"/>
+      <c r="A749" s="11"/>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="10"/>
+      <c r="A750" s="11"/>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="10"/>
+      <c r="A751" s="11"/>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="10"/>
+      <c r="A752" s="11"/>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="10"/>
+      <c r="A753" s="11"/>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="10"/>
+      <c r="A754" s="11"/>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="10"/>
+      <c r="A755" s="11"/>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="10"/>
+      <c r="A756" s="11"/>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="10"/>
+      <c r="A757" s="11"/>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="10"/>
+      <c r="A758" s="11"/>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="10"/>
+      <c r="A759" s="11"/>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="10"/>
+      <c r="A760" s="11"/>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="10"/>
+      <c r="A761" s="11"/>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="10"/>
+      <c r="A762" s="11"/>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="10"/>
+      <c r="A763" s="11"/>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="10"/>
+      <c r="A764" s="11"/>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="10"/>
+      <c r="A765" s="11"/>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="10"/>
+      <c r="A766" s="11"/>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="10"/>
+      <c r="A767" s="11"/>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="10"/>
+      <c r="A768" s="11"/>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="10"/>
+      <c r="A769" s="11"/>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="10"/>
+      <c r="A770" s="11"/>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="10"/>
+      <c r="A771" s="11"/>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="10"/>
+      <c r="A772" s="11"/>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="10"/>
+      <c r="A773" s="11"/>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="10"/>
+      <c r="A774" s="11"/>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="10"/>
+      <c r="A775" s="11"/>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="10"/>
+      <c r="A776" s="11"/>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="10"/>
+      <c r="A777" s="11"/>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="10"/>
+      <c r="A778" s="11"/>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="10"/>
+      <c r="A779" s="11"/>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="10"/>
+      <c r="A780" s="11"/>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="10"/>
+      <c r="A781" s="11"/>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="10"/>
+      <c r="A782" s="11"/>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="10"/>
+      <c r="A783" s="11"/>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="10"/>
+      <c r="A784" s="11"/>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="10"/>
+      <c r="A785" s="11"/>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="10"/>
+      <c r="A786" s="11"/>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="10"/>
+      <c r="A787" s="11"/>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="10"/>
+      <c r="A788" s="11"/>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="10"/>
+      <c r="A789" s="11"/>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="10"/>
+      <c r="A790" s="11"/>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="10"/>
+      <c r="A791" s="11"/>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="10"/>
+      <c r="A792" s="11"/>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="10"/>
+      <c r="A793" s="11"/>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="10"/>
+      <c r="A794" s="11"/>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="10"/>
+      <c r="A795" s="11"/>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="10"/>
+      <c r="A796" s="11"/>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="10"/>
+      <c r="A797" s="11"/>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="10"/>
+      <c r="A798" s="11"/>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="10"/>
+      <c r="A799" s="11"/>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="10"/>
+      <c r="A800" s="11"/>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="10"/>
+      <c r="A801" s="11"/>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="10"/>
+      <c r="A802" s="11"/>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="10"/>
+      <c r="A803" s="11"/>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="10"/>
+      <c r="A804" s="11"/>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="10"/>
+      <c r="A805" s="11"/>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="10"/>
+      <c r="A806" s="11"/>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="10"/>
+      <c r="A807" s="11"/>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="10"/>
+      <c r="A808" s="11"/>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="10"/>
+      <c r="A809" s="11"/>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="10"/>
+      <c r="A810" s="11"/>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="10"/>
+      <c r="A811" s="11"/>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="10"/>
+      <c r="A812" s="11"/>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="10"/>
+      <c r="A813" s="11"/>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="10"/>
+      <c r="A814" s="11"/>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="10"/>
+      <c r="A815" s="11"/>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="10"/>
+      <c r="A816" s="11"/>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="10"/>
+      <c r="A817" s="11"/>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="10"/>
+      <c r="A818" s="11"/>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="10"/>
+      <c r="A819" s="11"/>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="10"/>
+      <c r="A820" s="11"/>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="10"/>
+      <c r="A821" s="11"/>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="10"/>
+      <c r="A822" s="11"/>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="10"/>
+      <c r="A823" s="11"/>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="10"/>
+      <c r="A824" s="11"/>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="10"/>
+      <c r="A825" s="11"/>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="10"/>
+      <c r="A826" s="11"/>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="10"/>
+      <c r="A827" s="11"/>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="10"/>
+      <c r="A828" s="11"/>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="10"/>
+      <c r="A829" s="11"/>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="10"/>
+      <c r="A830" s="11"/>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="10"/>
+      <c r="A831" s="11"/>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="10"/>
+      <c r="A832" s="11"/>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="10"/>
+      <c r="A833" s="11"/>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="10"/>
+      <c r="A834" s="11"/>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="10"/>
+      <c r="A835" s="11"/>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="10"/>
+      <c r="A836" s="11"/>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="10"/>
+      <c r="A837" s="11"/>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="10"/>
+      <c r="A838" s="11"/>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="10"/>
+      <c r="A839" s="11"/>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="10"/>
+      <c r="A840" s="11"/>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="10"/>
+      <c r="A841" s="11"/>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="10"/>
+      <c r="A842" s="11"/>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="10"/>
+      <c r="A843" s="11"/>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="10"/>
+      <c r="A844" s="11"/>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="10"/>
+      <c r="A845" s="11"/>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="10"/>
+      <c r="A846" s="11"/>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="10"/>
+      <c r="A847" s="11"/>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="10"/>
+      <c r="A848" s="11"/>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="10"/>
+      <c r="A849" s="11"/>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="10"/>
+      <c r="A850" s="11"/>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="10"/>
+      <c r="A851" s="11"/>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="10"/>
+      <c r="A852" s="11"/>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="10"/>
+      <c r="A853" s="11"/>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="10"/>
+      <c r="A854" s="11"/>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="10"/>
+      <c r="A855" s="11"/>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="10"/>
+      <c r="A856" s="11"/>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="10"/>
+      <c r="A857" s="11"/>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="10"/>
+      <c r="A858" s="11"/>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="10"/>
+      <c r="A859" s="11"/>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="10"/>
+      <c r="A860" s="11"/>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="10"/>
+      <c r="A861" s="11"/>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="10"/>
+      <c r="A862" s="11"/>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="10"/>
+      <c r="A863" s="11"/>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="10"/>
+      <c r="A864" s="11"/>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="10"/>
+      <c r="A865" s="11"/>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="10"/>
+      <c r="A866" s="11"/>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="10"/>
+      <c r="A867" s="11"/>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="10"/>
+      <c r="A868" s="11"/>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="10"/>
+      <c r="A869" s="11"/>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="10"/>
+      <c r="A870" s="11"/>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="10"/>
+      <c r="A871" s="11"/>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="10"/>
+      <c r="A872" s="11"/>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="10"/>
+      <c r="A873" s="11"/>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="10"/>
+      <c r="A874" s="11"/>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="10"/>
+      <c r="A875" s="11"/>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="10"/>
+      <c r="A876" s="11"/>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="10"/>
+      <c r="A877" s="11"/>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="10"/>
+      <c r="A878" s="11"/>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="10"/>
+      <c r="A879" s="11"/>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="10"/>
+      <c r="A880" s="11"/>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="10"/>
+      <c r="A881" s="11"/>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="10"/>
+      <c r="A882" s="11"/>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="10"/>
+      <c r="A883" s="11"/>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="10"/>
+      <c r="A884" s="11"/>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="10"/>
+      <c r="A885" s="11"/>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="10"/>
+      <c r="A886" s="11"/>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="10"/>
+      <c r="A887" s="11"/>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="10"/>
+      <c r="A888" s="11"/>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="10"/>
+      <c r="A889" s="11"/>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="10"/>
+      <c r="A890" s="11"/>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="10"/>
+      <c r="A891" s="11"/>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="10"/>
+      <c r="A892" s="11"/>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="10"/>
+      <c r="A893" s="11"/>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="10"/>
+      <c r="A894" s="11"/>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="10"/>
+      <c r="A895" s="11"/>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="10"/>
+      <c r="A896" s="11"/>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="10"/>
+      <c r="A897" s="11"/>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="10"/>
+      <c r="A898" s="11"/>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="10"/>
+      <c r="A899" s="11"/>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="10"/>
+      <c r="A900" s="11"/>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="10"/>
+      <c r="A901" s="11"/>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="10"/>
+      <c r="A902" s="11"/>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="10"/>
+      <c r="A903" s="11"/>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="10"/>
+      <c r="A904" s="11"/>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="10"/>
+      <c r="A905" s="11"/>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="10"/>
+      <c r="A906" s="11"/>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="10"/>
+      <c r="A907" s="11"/>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="10"/>
+      <c r="A908" s="11"/>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="10"/>
+      <c r="A909" s="11"/>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="10"/>
+      <c r="A910" s="11"/>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="10"/>
+      <c r="A911" s="11"/>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="10"/>
+      <c r="A912" s="11"/>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="10"/>
+      <c r="A913" s="11"/>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="10"/>
+      <c r="A914" s="11"/>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="10"/>
+      <c r="A915" s="11"/>
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="10"/>
+      <c r="A916" s="11"/>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="10"/>
+      <c r="A917" s="11"/>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="10"/>
+      <c r="A918" s="11"/>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="10"/>
+      <c r="A919" s="11"/>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="10"/>
+      <c r="A920" s="11"/>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="10"/>
+      <c r="A921" s="11"/>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="10"/>
+      <c r="A922" s="11"/>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="10"/>
+      <c r="A923" s="11"/>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="10"/>
+      <c r="A924" s="11"/>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="10"/>
+      <c r="A925" s="11"/>
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="10"/>
+      <c r="A926" s="11"/>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="10"/>
+      <c r="A927" s="11"/>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="10"/>
+      <c r="A928" s="11"/>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="10"/>
+      <c r="A929" s="11"/>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="10"/>
+      <c r="A930" s="11"/>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="10"/>
+      <c r="A931" s="11"/>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="10"/>
+      <c r="A932" s="11"/>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="10"/>
+      <c r="A933" s="11"/>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="10"/>
+      <c r="A934" s="11"/>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="10"/>
+      <c r="A935" s="11"/>
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="10"/>
+      <c r="A936" s="11"/>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="10"/>
+      <c r="A937" s="11"/>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="10"/>
+      <c r="A938" s="11"/>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="10"/>
+      <c r="A939" s="11"/>
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="10"/>
+      <c r="A940" s="11"/>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="10"/>
+      <c r="A941" s="11"/>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="10"/>
+      <c r="A942" s="11"/>
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="10"/>
+      <c r="A943" s="11"/>
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="10"/>
+      <c r="A944" s="11"/>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="10"/>
+      <c r="A945" s="11"/>
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="10"/>
+      <c r="A946" s="11"/>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="10"/>
+      <c r="A947" s="11"/>
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="10"/>
+      <c r="A948" s="11"/>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="10"/>
+      <c r="A949" s="11"/>
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="10"/>
+      <c r="A950" s="11"/>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="10"/>
+      <c r="A951" s="11"/>
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="10"/>
+      <c r="A952" s="11"/>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="10"/>
+      <c r="A953" s="11"/>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="10"/>
+      <c r="A954" s="11"/>
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="10"/>
+      <c r="A955" s="11"/>
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="10"/>
+      <c r="A956" s="11"/>
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="10"/>
+      <c r="A957" s="11"/>
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="10"/>
+      <c r="A958" s="11"/>
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="10"/>
+      <c r="A959" s="11"/>
     </row>
     <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="10"/>
+      <c r="A960" s="11"/>
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="10"/>
+      <c r="A961" s="11"/>
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="10"/>
+      <c r="A962" s="11"/>
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="10"/>
+      <c r="A963" s="11"/>
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="10"/>
+      <c r="A964" s="11"/>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="10"/>
+      <c r="A965" s="11"/>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="10"/>
+      <c r="A966" s="11"/>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="10"/>
+      <c r="A967" s="11"/>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="10"/>
+      <c r="A968" s="11"/>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="10"/>
+      <c r="A969" s="11"/>
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="10"/>
+      <c r="A970" s="11"/>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="10"/>
+      <c r="A971" s="11"/>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="10"/>
+      <c r="A972" s="11"/>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="10"/>
+      <c r="A973" s="11"/>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="10"/>
+      <c r="A974" s="11"/>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="10"/>
+      <c r="A975" s="11"/>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="10"/>
+      <c r="A976" s="11"/>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="10"/>
+      <c r="A977" s="11"/>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="10"/>
+      <c r="A978" s="11"/>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="10"/>
+      <c r="A979" s="11"/>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="10"/>
+      <c r="A980" s="11"/>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="10"/>
+      <c r="A981" s="11"/>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="10"/>
+      <c r="A982" s="11"/>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="10"/>
+      <c r="A983" s="11"/>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="10"/>
+      <c r="A984" s="11"/>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="10"/>
+      <c r="A985" s="11"/>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="10"/>
+      <c r="A986" s="11"/>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="10"/>
+      <c r="A987" s="11"/>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="10"/>
+      <c r="A988" s="11"/>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="10"/>
+      <c r="A989" s="11"/>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="10"/>
+      <c r="A990" s="11"/>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="10"/>
+      <c r="A991" s="11"/>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="10"/>
+      <c r="A992" s="11"/>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="10"/>
+      <c r="A993" s="11"/>
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="10"/>
+      <c r="A994" s="11"/>
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="10"/>
+      <c r="A995" s="11"/>
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="10"/>
+      <c r="A996" s="11"/>
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="10"/>
+      <c r="A997" s="11"/>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="10"/>
+      <c r="A998" s="11"/>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="10"/>
+      <c r="A999" s="11"/>
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="10"/>
+      <c r="A1000" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
